--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_4_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_4_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>514355.9698570569</v>
+        <v>454875.9659937724</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>572409.9647275263</v>
+        <v>559512.0876269371</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10472194.14549646</v>
+        <v>10316995.04692716</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8087746.925119575</v>
+        <v>8162710.145839096</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
-        <v>109.8247558813647</v>
+        <v>98.50260376545792</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -746,13 +746,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>118.1202051047698</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>49.67353352483901</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>186.7982527956746</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>84.31882417064588</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>284.0772061843702</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>175.7372121288973</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>88.93351440885131</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>55.27952187619052</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>186.7982527956746</v>
@@ -1068,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7420538716369</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>242.4203156776819</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,22 +1135,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>133.467137197124</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2.227246689931307</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1220,16 +1220,16 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>109.6081688639339</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>128.9874563185103</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>357.1629492025431</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>64.02680196474613</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H11" t="n">
-        <v>329.4930616586638</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I11" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>185.3566856159496</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T11" t="n">
-        <v>222.1153568062989</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U11" t="n">
-        <v>252.3364829231459</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V11" t="n">
         <v>333.6094813630181</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="12">
@@ -1457,19 +1457,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>127.2368531361802</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>96.9647737324037</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>60.66232013215078</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.18642621600367</v>
+        <v>46.49806561112342</v>
       </c>
       <c r="S12" t="n">
-        <v>151.2714921173871</v>
+        <v>147.4755605575066</v>
       </c>
       <c r="T12" t="n">
-        <v>186.7982527956746</v>
+        <v>185.9745311655613</v>
       </c>
       <c r="U12" t="n">
-        <v>216.3098444776729</v>
+        <v>216.2963996197277</v>
       </c>
       <c r="V12" t="n">
         <v>226.1116663261494</v>
@@ -1517,7 +1517,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>175.369458122062</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="13">
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>147.8649255692296</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>230.8471636524779</v>
+        <v>154.0270791583355</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>411.5609956070679</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>252.305926837283</v>
       </c>
       <c r="V14" t="n">
-        <v>216.2410528891646</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>312.1613422321221</v>
       </c>
       <c r="Y14" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I15" t="n">
-        <v>60.66232013215078</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>46.49806561112342</v>
+        <v>46.49806561112411</v>
       </c>
       <c r="S15" t="n">
         <v>147.4755605575066</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.73916953180441</v>
+        <v>65.73916953180442</v>
       </c>
       <c r="S17" t="n">
         <v>176.6529755334452</v>
       </c>
       <c r="T17" t="n">
-        <v>220.4433659829895</v>
+        <v>122.3681786156682</v>
       </c>
       <c r="U17" t="n">
         <v>252.305926837283</v>
@@ -1906,13 +1906,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>290.9500933395655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I18" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013215034</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>46.49806561112342</v>
       </c>
       <c r="S18" t="n">
-        <v>147.4755605575077</v>
+        <v>147.4755605575066</v>
       </c>
       <c r="T18" t="n">
         <v>185.9745311655613</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>99.6721811541385</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
-        <v>125.8532215944585</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>410.0096787829314</v>
+        <v>382.6119130215927</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H20" t="n">
         <v>325.5814052293737</v>
       </c>
       <c r="I20" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.73916953180441</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
-        <v>351.405462957818</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
         <v>389.6064368699203</v>
@@ -2162,7 +2162,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
-        <v>160.0866360314558</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
         <v>137.45025063969</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>230.1151168515673</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>284.3089918374816</v>
@@ -2301,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
-        <v>152.8519017703461</v>
+        <v>99.67218115413856</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>369.0957251250487</v>
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>60.96224463107016</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H23" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.73916953180442</v>
       </c>
       <c r="S23" t="n">
         <v>176.6529755334452</v>
@@ -2374,7 +2374,7 @@
         <v>220.4433659829895</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>45.10868286579321</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I24" t="n">
-        <v>60.66232013214974</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>46.49806561112411</v>
+        <v>46.49806561112342</v>
       </c>
       <c r="S24" t="n">
-        <v>147.4755605575067</v>
+        <v>147.4755605575066</v>
       </c>
       <c r="T24" t="n">
         <v>185.9745311655613</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.934415225706209</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>208.5868485504649</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>189.3332518425877</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>219.8148072196457</v>
@@ -2557,22 +2557,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>369.0957251250487</v>
+        <v>111.8075196809152</v>
       </c>
       <c r="E26" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>117.2017492122787</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I27" t="n">
-        <v>60.66232013214974</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>46.49806561112366</v>
+        <v>46.49806561112342</v>
       </c>
       <c r="S27" t="n">
-        <v>147.4755605575067</v>
+        <v>147.4755605575066</v>
       </c>
       <c r="T27" t="n">
         <v>185.9745311655613</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>119.9273370565862</v>
       </c>
       <c r="C28" t="n">
         <v>167.9198098429365</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>230.1151168515673</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>49.42627654524536</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>378.1144210805207</v>
@@ -2800,19 +2800,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>370.8475699447761</v>
+        <v>176.2351963220844</v>
       </c>
       <c r="G29" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I30" t="n">
-        <v>60.66232013214974</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>46.49806561112343</v>
+        <v>46.49806561112342</v>
       </c>
       <c r="S30" t="n">
-        <v>147.4755605575067</v>
+        <v>147.4755605575066</v>
       </c>
       <c r="T30" t="n">
         <v>185.9745311655613</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.85423005982657</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>208.5868485504649</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>230.1151168515673</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>99.67218115413856</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,16 +3031,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
-        <v>305.5505913738816</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>411.5609956070679</v>
@@ -3049,7 +3049,7 @@
         <v>325.5814052293737</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>17.07414980459522</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="33">
@@ -3125,10 +3125,10 @@
         <v>127.2368531361802</v>
       </c>
       <c r="H33" t="n">
-        <v>96.9647737324043</v>
+        <v>96.9647737324037</v>
       </c>
       <c r="I33" t="n">
-        <v>60.66232013214974</v>
+        <v>60.66232013215034</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>46.49806561112343</v>
+        <v>46.49806561112342</v>
       </c>
       <c r="S33" t="n">
-        <v>147.4755605575067</v>
+        <v>147.4755605575066</v>
       </c>
       <c r="T33" t="n">
         <v>185.9745311655613</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.0592210434877</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.2556384040709</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>42.51637849106128</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>152.851901770346</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>132.5235851319025</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H35" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>220.4433659829895</v>
@@ -3325,10 +3325,10 @@
         <v>252.305926837283</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>58.05312123455783</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I36" t="n">
-        <v>60.66232013214974</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>46.49806561112343</v>
+        <v>46.49806561112342</v>
       </c>
       <c r="S36" t="n">
-        <v>147.4755605575067</v>
+        <v>147.4755605575066</v>
       </c>
       <c r="T36" t="n">
         <v>185.9745311655613</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>167.0592210434877</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.2556384040709</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>10.70016177378537</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>81.52224610113834</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3508,10 +3508,10 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>411.5609956070679</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>62.75170764481262</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S38" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>65.60734277200511</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y38" t="n">
         <v>389.6064368699203</v>
@@ -3602,7 +3602,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I39" t="n">
-        <v>60.66232013214974</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>46.49806561112343</v>
+        <v>46.49806561112342</v>
       </c>
       <c r="S39" t="n">
-        <v>147.4755605575067</v>
+        <v>147.4755605575066</v>
       </c>
       <c r="T39" t="n">
         <v>185.9745311655613</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>152.851901770346</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>152.851901770346</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>230.1151168515673</v>
@@ -3742,25 +3742,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>41.30624883413428</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H41" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T41" t="n">
         <v>220.4433659829895</v>
@@ -3799,7 +3799,7 @@
         <v>252.305926837283</v>
       </c>
       <c r="V41" t="n">
-        <v>333.6094813630181</v>
+        <v>215.0096270641304</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I42" t="n">
-        <v>60.66232013214974</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>46.49806561112343</v>
+        <v>46.49806561112342</v>
       </c>
       <c r="S42" t="n">
-        <v>147.4755605575067</v>
+        <v>147.4755605575066</v>
       </c>
       <c r="T42" t="n">
         <v>185.9745311655613</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>152.851901770346</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>230.1151168515673</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>125.8532215944584</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S44" t="n">
-        <v>2.056165727655475</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>220.4433659829895</v>
+        <v>30.85644994240176</v>
       </c>
       <c r="U44" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
         <v>389.6064368699203</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>155.041233528042</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>139.2281778254785</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>569.0623394968745</v>
+        <v>1707.169265541942</v>
       </c>
       <c r="C2" t="n">
-        <v>569.0623394968745</v>
+        <v>1325.235506874749</v>
       </c>
       <c r="D2" t="n">
-        <v>569.0623394968745</v>
+        <v>952.4115421019731</v>
       </c>
       <c r="E2" t="n">
-        <v>569.0623394968745</v>
+        <v>557.6258222080799</v>
       </c>
       <c r="F2" t="n">
-        <v>569.0623394968745</v>
+        <v>557.6258222080799</v>
       </c>
       <c r="G2" t="n">
-        <v>152.9583529510625</v>
+        <v>141.5218356622678</v>
       </c>
       <c r="H2" t="n">
-        <v>42.02425610119924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I2" t="n">
-        <v>42.02425610119924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J2" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740046</v>
       </c>
       <c r="K2" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L2" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M2" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N2" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O2" t="n">
         <v>1778.623654917371</v>
@@ -4369,13 +4369,13 @@
         <v>2101.212805059961</v>
       </c>
       <c r="W2" t="n">
-        <v>1738.677874917562</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X2" t="n">
-        <v>1356.647734439056</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Y2" t="n">
-        <v>963.1058790148937</v>
+        <v>2101.212805059961</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>461.879904359699</v>
+        <v>674.4636602520131</v>
       </c>
       <c r="C3" t="n">
-        <v>300.1762316006536</v>
+        <v>512.7599874929679</v>
       </c>
       <c r="D3" t="n">
-        <v>161.3375945908657</v>
+        <v>373.9213504831799</v>
       </c>
       <c r="E3" t="n">
-        <v>42.02425610119923</v>
+        <v>226.8933405400512</v>
       </c>
       <c r="F3" t="n">
-        <v>42.02425610119923</v>
+        <v>92.19954248992551</v>
       </c>
       <c r="G3" t="n">
         <v>42.02425610119923</v>
@@ -4415,16 +4415,16 @@
         <v>331.768955194494</v>
       </c>
       <c r="L3" t="n">
-        <v>697.5908003646097</v>
+        <v>554.9422248568675</v>
       </c>
       <c r="M3" t="n">
-        <v>1182.624153874836</v>
+        <v>1039.975578367094</v>
       </c>
       <c r="N3" t="n">
-        <v>1641.34525599867</v>
+        <v>1551.241224490216</v>
       </c>
       <c r="O3" t="n">
-        <v>1641.34525599867</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="P3" t="n">
         <v>1943.441175274367</v>
@@ -4433,28 +4433,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R3" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S3" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T3" t="n">
-        <v>1699.943945333632</v>
+        <v>1912.527701225946</v>
       </c>
       <c r="U3" t="n">
-        <v>1481.449152931943</v>
+        <v>1694.032908824257</v>
       </c>
       <c r="V3" t="n">
-        <v>1253.053530380276</v>
+        <v>1465.63728627259</v>
       </c>
       <c r="W3" t="n">
-        <v>1011.737661613587</v>
+        <v>1224.321417505901</v>
       </c>
       <c r="X3" t="n">
-        <v>813.8206734913811</v>
+        <v>1026.404429383695</v>
       </c>
       <c r="Y3" t="n">
-        <v>621.2993471409599</v>
+        <v>833.8831030332741</v>
       </c>
     </row>
     <row r="4">
@@ -4515,16 +4515,16 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S4" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T4" t="n">
-        <v>127.1947855664981</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U4" t="n">
-        <v>42.02425610119923</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V4" t="n">
-        <v>42.02425610119923</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W4" t="n">
         <v>42.02425610119923</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42.02425610119923</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="C5" t="n">
-        <v>42.02425610119923</v>
+        <v>1532.050071023123</v>
       </c>
       <c r="D5" t="n">
-        <v>42.02425610119923</v>
+        <v>1159.226106250346</v>
       </c>
       <c r="E5" t="n">
-        <v>42.02425610119923</v>
+        <v>1159.226106250346</v>
       </c>
       <c r="F5" t="n">
-        <v>42.02425610119923</v>
+        <v>745.0749155605165</v>
       </c>
       <c r="G5" t="n">
-        <v>42.02425610119923</v>
+        <v>328.9709290147045</v>
       </c>
       <c r="H5" t="n">
         <v>42.02425610119923</v>
@@ -4591,28 +4591,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R5" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S5" t="n">
-        <v>1823.345543186168</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T5" t="n">
-        <v>1598.98659691718</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="U5" t="n">
-        <v>1344.101260631174</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="V5" t="n">
-        <v>1007.121986527115</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="W5" t="n">
-        <v>829.6096510433804</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="X5" t="n">
-        <v>829.6096510433804</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="Y5" t="n">
-        <v>436.0677956192184</v>
+        <v>1913.983829690315</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>461.879904359699</v>
+        <v>774.0988341282196</v>
       </c>
       <c r="C6" t="n">
-        <v>300.1762316006536</v>
+        <v>612.3951613691743</v>
       </c>
       <c r="D6" t="n">
-        <v>210.3443988644402</v>
+        <v>473.5565243593863</v>
       </c>
       <c r="E6" t="n">
-        <v>210.3443988644402</v>
+        <v>326.5285144162576</v>
       </c>
       <c r="F6" t="n">
-        <v>210.3443988644402</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G6" t="n">
-        <v>210.3443988644402</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I6" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J6" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K6" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L6" t="n">
-        <v>697.5908003646097</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M6" t="n">
-        <v>737.8796590913968</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N6" t="n">
         <v>1249.145305214519</v>
@@ -4673,25 +4673,25 @@
         <v>2041.428536154907</v>
       </c>
       <c r="S6" t="n">
-        <v>1888.629049167647</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T6" t="n">
-        <v>1699.943945333632</v>
+        <v>1852.743432320892</v>
       </c>
       <c r="U6" t="n">
-        <v>1481.449152931943</v>
+        <v>1634.248639919202</v>
       </c>
       <c r="V6" t="n">
-        <v>1253.053530380276</v>
+        <v>1405.853017367536</v>
       </c>
       <c r="W6" t="n">
-        <v>1011.737661613587</v>
+        <v>1164.537148600846</v>
       </c>
       <c r="X6" t="n">
-        <v>813.8206734913811</v>
+        <v>966.6201604786407</v>
       </c>
       <c r="Y6" t="n">
-        <v>621.2993471409599</v>
+        <v>774.0988341282196</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>574.0835013471317</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="C7" t="n">
-        <v>574.0835013471317</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="D7" t="n">
-        <v>574.0835013471317</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="E7" t="n">
-        <v>574.0835013471317</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="F7" t="n">
-        <v>574.0835013471317</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="G7" t="n">
-        <v>405.6571843050742</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="H7" t="n">
-        <v>246.284539084348</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="I7" t="n">
-        <v>102.0814946870265</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="J7" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="K7" t="n">
-        <v>75.62844384584264</v>
+        <v>1602.757747558672</v>
       </c>
       <c r="L7" t="n">
-        <v>176.2355232461022</v>
+        <v>1703.364826958932</v>
       </c>
       <c r="M7" t="n">
-        <v>294.2290293737039</v>
+        <v>1821.358333086534</v>
       </c>
       <c r="N7" t="n">
-        <v>412.6513711233043</v>
+        <v>1939.780674836134</v>
       </c>
       <c r="O7" t="n">
-        <v>511.1150176189939</v>
+        <v>2038.244321331824</v>
       </c>
       <c r="P7" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q7" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R7" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S7" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T7" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U7" t="n">
-        <v>574.0835013471317</v>
+        <v>1814.022565549061</v>
       </c>
       <c r="V7" t="n">
-        <v>574.0835013471317</v>
+        <v>1814.022565549061</v>
       </c>
       <c r="W7" t="n">
-        <v>574.0835013471317</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="X7" t="n">
-        <v>574.0835013471317</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="Y7" t="n">
-        <v>574.0835013471317</v>
+        <v>1569.153559814029</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>931.5972696392735</v>
+        <v>460.377986778255</v>
       </c>
       <c r="C8" t="n">
-        <v>549.6635109720808</v>
+        <v>460.377986778255</v>
       </c>
       <c r="D8" t="n">
-        <v>176.8395461993043</v>
+        <v>460.377986778255</v>
       </c>
       <c r="E8" t="n">
-        <v>42.02425610119923</v>
+        <v>460.377986778255</v>
       </c>
       <c r="F8" t="n">
-        <v>42.02425610119923</v>
+        <v>460.377986778255</v>
       </c>
       <c r="G8" t="n">
-        <v>42.02425610119923</v>
+        <v>44.27400023244297</v>
       </c>
       <c r="H8" t="n">
         <v>42.02425610119923</v>
@@ -4828,28 +4828,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T8" t="n">
-        <v>2101.212805059961</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U8" t="n">
-        <v>2101.212805059961</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="V8" t="n">
-        <v>2101.212805059961</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="W8" t="n">
-        <v>2101.212805059961</v>
+        <v>1236.451666774781</v>
       </c>
       <c r="X8" t="n">
-        <v>1719.182664581455</v>
+        <v>854.4215262962741</v>
       </c>
       <c r="Y8" t="n">
-        <v>1325.640809157293</v>
+        <v>854.4215262962741</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C9" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D9" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E9" t="n">
-        <v>473.7666968912813</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="F9" t="n">
-        <v>339.0728988411556</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="G9" t="n">
-        <v>210.3443988644402</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="H9" t="n">
         <v>110.4065414111382</v>
@@ -4883,13 +4883,13 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>42.02425610119923</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L9" t="n">
-        <v>252.8463055811703</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M9" t="n">
         <v>737.8796590913968</v>
@@ -4910,25 +4910,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S9" t="n">
-        <v>2101.212805059961</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T9" t="n">
-        <v>2101.212805059961</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U9" t="n">
-        <v>1940.906265175487</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V9" t="n">
-        <v>1712.510642623821</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W9" t="n">
-        <v>1471.194773857131</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X9" t="n">
-        <v>1273.277785734925</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y9" t="n">
-        <v>1080.756459384504</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="10">
@@ -4983,22 +4983,22 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R10" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S10" t="n">
-        <v>172.3146160188864</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U10" t="n">
-        <v>42.02425610119923</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V10" t="n">
-        <v>42.02425610119923</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W10" t="n">
         <v>42.02425610119923</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1007.121986527115</v>
+        <v>1156.212856906533</v>
       </c>
       <c r="C11" t="n">
-        <v>1007.121986527115</v>
+        <v>795.442201146388</v>
       </c>
       <c r="D11" t="n">
-        <v>1007.121986527115</v>
+        <v>795.442201146388</v>
       </c>
       <c r="E11" t="n">
-        <v>612.3362666332214</v>
+        <v>795.442201146388</v>
       </c>
       <c r="F11" t="n">
-        <v>547.662729295094</v>
+        <v>795.442201146388</v>
       </c>
       <c r="G11" t="n">
-        <v>547.662729295094</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="H11" t="n">
-        <v>214.8414548924032</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I11" t="n">
-        <v>42.02425610119922</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J11" t="n">
-        <v>114.0228003740048</v>
+        <v>154.9459054532635</v>
       </c>
       <c r="K11" t="n">
-        <v>354.1631724187869</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L11" t="n">
-        <v>702.0485455037331</v>
+        <v>850.743399890712</v>
       </c>
       <c r="M11" t="n">
-        <v>1095.287711756821</v>
+        <v>1310.379159876956</v>
       </c>
       <c r="N11" t="n">
-        <v>1473.619070444537</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O11" t="n">
-        <v>1778.623654917371</v>
+        <v>2124.896977382889</v>
       </c>
       <c r="P11" t="n">
-        <v>2006.780551373424</v>
+        <v>2407.429665198536</v>
       </c>
       <c r="Q11" t="n">
-        <v>2101.212805059961</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R11" t="n">
-        <v>2010.574518555814</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S11" t="n">
-        <v>1823.345543186168</v>
+        <v>2364.258524637049</v>
       </c>
       <c r="T11" t="n">
-        <v>1598.986596917179</v>
+        <v>2141.588457987565</v>
       </c>
       <c r="U11" t="n">
-        <v>1344.101260631173</v>
+        <v>1886.733986434753</v>
       </c>
       <c r="V11" t="n">
-        <v>1007.121986527115</v>
+        <v>1549.754712330695</v>
       </c>
       <c r="W11" t="n">
-        <v>1007.121986527115</v>
+        <v>1549.754712330695</v>
       </c>
       <c r="X11" t="n">
-        <v>1007.121986527115</v>
+        <v>1549.754712330695</v>
       </c>
       <c r="Y11" t="n">
-        <v>1007.121986527115</v>
+        <v>1156.212856906533</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>477.2603639201581</v>
+        <v>920.859395842105</v>
       </c>
       <c r="C12" t="n">
-        <v>315.5566911611128</v>
+        <v>759.1557230830597</v>
       </c>
       <c r="D12" t="n">
-        <v>176.7180541513249</v>
+        <v>620.3170860732718</v>
       </c>
       <c r="E12" t="n">
-        <v>176.7180541513249</v>
+        <v>473.289076130143</v>
       </c>
       <c r="F12" t="n">
-        <v>42.02425610119922</v>
+        <v>338.5952780800174</v>
       </c>
       <c r="G12" t="n">
-        <v>42.02425610119922</v>
+        <v>210.0732042050878</v>
       </c>
       <c r="H12" t="n">
-        <v>42.02425610119922</v>
+        <v>112.128988313771</v>
       </c>
       <c r="I12" t="n">
-        <v>42.02425610119922</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J12" t="n">
-        <v>42.02425610119922</v>
+        <v>130.222699216255</v>
       </c>
       <c r="K12" t="n">
-        <v>271.5148086613879</v>
+        <v>251.6973914949269</v>
       </c>
       <c r="L12" t="n">
-        <v>637.3366538315036</v>
+        <v>661.4480243753527</v>
       </c>
       <c r="M12" t="n">
-        <v>895.6512888769906</v>
+        <v>1197.744201156453</v>
       </c>
       <c r="N12" t="n">
-        <v>1406.916935000113</v>
+        <v>1761.629444945138</v>
       </c>
       <c r="O12" t="n">
-        <v>1799.116885784264</v>
+        <v>2201.966047520445</v>
       </c>
       <c r="P12" t="n">
-        <v>2101.212805059961</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Q12" t="n">
-        <v>2101.212805059961</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R12" t="n">
-        <v>2041.428536154907</v>
+        <v>2495.728130619193</v>
       </c>
       <c r="S12" t="n">
-        <v>1888.629049167647</v>
+        <v>2346.762917934842</v>
       </c>
       <c r="T12" t="n">
-        <v>1699.943945333632</v>
+        <v>2158.909856151447</v>
       </c>
       <c r="U12" t="n">
-        <v>1481.449152931942</v>
+        <v>1940.428644414348</v>
       </c>
       <c r="V12" t="n">
-        <v>1253.053530380276</v>
+        <v>1712.033021862682</v>
       </c>
       <c r="W12" t="n">
-        <v>1011.737661613586</v>
+        <v>1470.717153095992</v>
       </c>
       <c r="X12" t="n">
-        <v>813.8206734913806</v>
+        <v>1272.800164973787</v>
       </c>
       <c r="Y12" t="n">
-        <v>636.679806701419</v>
+        <v>1080.278838623366</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.02425610119922</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="C13" t="n">
-        <v>42.02425610119922</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D13" t="n">
-        <v>42.02425610119922</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E13" t="n">
-        <v>42.02425610119922</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F13" t="n">
-        <v>42.02425610119922</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G13" t="n">
-        <v>42.02425610119922</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H13" t="n">
-        <v>42.02425610119922</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I13" t="n">
-        <v>42.02425610119922</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J13" t="n">
-        <v>42.02425610119922</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K13" t="n">
-        <v>75.62844384584264</v>
+        <v>104.1644935890949</v>
       </c>
       <c r="L13" t="n">
-        <v>176.2355232461022</v>
+        <v>229.9889654324849</v>
       </c>
       <c r="M13" t="n">
-        <v>294.2290293737039</v>
+        <v>374.5706761520457</v>
       </c>
       <c r="N13" t="n">
-        <v>412.6513711233043</v>
+        <v>518.9490144159678</v>
       </c>
       <c r="O13" t="n">
-        <v>511.1150176189939</v>
+        <v>641.3872247924079</v>
       </c>
       <c r="P13" t="n">
-        <v>574.0835013471317</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="Q13" t="n">
-        <v>574.0835013471317</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="R13" t="n">
-        <v>424.5617199615099</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="S13" t="n">
-        <v>275.2032092855204</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="T13" t="n">
-        <v>42.02425610119922</v>
+        <v>569.2871814136788</v>
       </c>
       <c r="U13" t="n">
-        <v>42.02425610119922</v>
+        <v>282.1063815778389</v>
       </c>
       <c r="V13" t="n">
-        <v>42.02425610119922</v>
+        <v>282.1063815778389</v>
       </c>
       <c r="W13" t="n">
-        <v>42.02425610119922</v>
+        <v>282.1063815778389</v>
       </c>
       <c r="X13" t="n">
-        <v>42.02425610119922</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="Y13" t="n">
-        <v>42.02425610119922</v>
+        <v>50.85391747321462</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>880.7232855439211</v>
+        <v>1177.375959813581</v>
       </c>
       <c r="C14" t="n">
-        <v>880.7232855439211</v>
+        <v>795.442201146388</v>
       </c>
       <c r="D14" t="n">
-        <v>880.7232855439211</v>
+        <v>795.442201146388</v>
       </c>
       <c r="E14" t="n">
-        <v>880.7232855439211</v>
+        <v>795.442201146388</v>
       </c>
       <c r="F14" t="n">
-        <v>466.5720948540913</v>
+        <v>795.442201146388</v>
       </c>
       <c r="G14" t="n">
-        <v>50.85391747321462</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="H14" t="n">
         <v>50.85391747321462</v>
@@ -5284,7 +5284,7 @@
         <v>443.1860302481635</v>
       </c>
       <c r="L14" t="n">
-        <v>850.743399890712</v>
+        <v>850.7433998907121</v>
       </c>
       <c r="M14" t="n">
         <v>1310.379159876956</v>
@@ -5314,16 +5314,16 @@
         <v>1886.733986434753</v>
       </c>
       <c r="V14" t="n">
-        <v>1668.308680486102</v>
+        <v>1886.733986434753</v>
       </c>
       <c r="W14" t="n">
-        <v>1668.308680486102</v>
+        <v>1886.733986434753</v>
       </c>
       <c r="X14" t="n">
-        <v>1668.308680486102</v>
+        <v>1571.4194993316</v>
       </c>
       <c r="Y14" t="n">
-        <v>1274.76682506194</v>
+        <v>1571.4194993316</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>920.859395842105</v>
+        <v>920.8593958421039</v>
       </c>
       <c r="C15" t="n">
-        <v>759.1557230830597</v>
+        <v>759.1557230830587</v>
       </c>
       <c r="D15" t="n">
-        <v>620.3170860732718</v>
+        <v>620.3170860732707</v>
       </c>
       <c r="E15" t="n">
-        <v>473.289076130143</v>
+        <v>473.2890761301419</v>
       </c>
       <c r="F15" t="n">
-        <v>338.5952780800174</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G15" t="n">
-        <v>210.0732042050878</v>
+        <v>210.0732042050868</v>
       </c>
       <c r="H15" t="n">
-        <v>112.128988313771</v>
+        <v>112.1289883137699</v>
       </c>
       <c r="I15" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J15" t="n">
-        <v>50.85391747321462</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="K15" t="n">
-        <v>251.6973914949269</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="L15" t="n">
-        <v>661.4480243753527</v>
+        <v>477.8506509775801</v>
       </c>
       <c r="M15" t="n">
-        <v>1197.744201156453</v>
+        <v>1014.146827758681</v>
       </c>
       <c r="N15" t="n">
-        <v>1761.629444945138</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O15" t="n">
-        <v>2201.966047520445</v>
+        <v>2018.368674122673</v>
       </c>
       <c r="P15" t="n">
-        <v>2542.695873660731</v>
+        <v>2359.098500262959</v>
       </c>
       <c r="Q15" t="n">
         <v>2542.695873660731</v>
       </c>
       <c r="R15" t="n">
-        <v>2495.728130619193</v>
+        <v>2495.728130619192</v>
       </c>
       <c r="S15" t="n">
-        <v>2346.762917934842</v>
+        <v>2346.762917934841</v>
       </c>
       <c r="T15" t="n">
-        <v>2158.909856151447</v>
+        <v>2158.909856151446</v>
       </c>
       <c r="U15" t="n">
-        <v>1940.428644414348</v>
+        <v>1940.428644414347</v>
       </c>
       <c r="V15" t="n">
-        <v>1712.033021862682</v>
+        <v>1712.033021862681</v>
       </c>
       <c r="W15" t="n">
-        <v>1470.717153095992</v>
+        <v>1470.717153095991</v>
       </c>
       <c r="X15" t="n">
-        <v>1272.800164973787</v>
+        <v>1272.800164973786</v>
       </c>
       <c r="Y15" t="n">
-        <v>1080.278838623366</v>
+        <v>1080.278838623365</v>
       </c>
     </row>
     <row r="16">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50.85391747321462</v>
+        <v>1582.417356608994</v>
       </c>
       <c r="C17" t="n">
-        <v>50.85391747321462</v>
+        <v>1582.417356608994</v>
       </c>
       <c r="D17" t="n">
-        <v>50.85391747321462</v>
+        <v>1209.593391836218</v>
       </c>
       <c r="E17" t="n">
-        <v>50.85391747321462</v>
+        <v>1209.593391836218</v>
       </c>
       <c r="F17" t="n">
-        <v>50.85391747321462</v>
+        <v>795.442201146388</v>
       </c>
       <c r="G17" t="n">
-        <v>50.85391747321462</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="H17" t="n">
         <v>50.85391747321462</v>
@@ -5515,13 +5515,13 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J17" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532636</v>
       </c>
       <c r="K17" t="n">
-        <v>443.1860302481634</v>
+        <v>443.1860302481635</v>
       </c>
       <c r="L17" t="n">
-        <v>850.743399890712</v>
+        <v>850.7433998907121</v>
       </c>
       <c r="M17" t="n">
         <v>1310.379159876956</v>
@@ -5533,7 +5533,7 @@
         <v>2124.896977382889</v>
       </c>
       <c r="P17" t="n">
-        <v>2407.429665198536</v>
+        <v>2407.429665198535</v>
       </c>
       <c r="Q17" t="n">
         <v>2542.695873660731</v>
@@ -5542,25 +5542,25 @@
         <v>2476.292672113454</v>
       </c>
       <c r="S17" t="n">
-        <v>2297.855323089772</v>
+        <v>2297.855323089771</v>
       </c>
       <c r="T17" t="n">
-        <v>2075.185256440288</v>
+        <v>2174.251102265864</v>
       </c>
       <c r="U17" t="n">
-        <v>1820.330784887476</v>
+        <v>1919.396630713053</v>
       </c>
       <c r="V17" t="n">
-        <v>1483.351510783418</v>
+        <v>1582.417356608994</v>
       </c>
       <c r="W17" t="n">
-        <v>1120.816580641019</v>
+        <v>1582.417356608994</v>
       </c>
       <c r="X17" t="n">
-        <v>738.786440162512</v>
+        <v>1582.417356608994</v>
       </c>
       <c r="Y17" t="n">
-        <v>444.8974569912338</v>
+        <v>1582.417356608994</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>920.8593958421039</v>
+        <v>920.8593958421045</v>
       </c>
       <c r="C18" t="n">
-        <v>759.1557230830587</v>
+        <v>759.1557230830592</v>
       </c>
       <c r="D18" t="n">
-        <v>620.3170860732707</v>
+        <v>620.3170860732713</v>
       </c>
       <c r="E18" t="n">
-        <v>473.2890761301419</v>
+        <v>473.2890761301425</v>
       </c>
       <c r="F18" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800169</v>
       </c>
       <c r="G18" t="n">
-        <v>210.0732042050868</v>
+        <v>210.0732042050874</v>
       </c>
       <c r="H18" t="n">
-        <v>112.1289883137699</v>
+        <v>112.1289883137705</v>
       </c>
       <c r="I18" t="n">
         <v>50.85391747321462</v>
@@ -5597,43 +5597,43 @@
         <v>50.85391747321462</v>
       </c>
       <c r="K18" t="n">
-        <v>68.1000180971543</v>
+        <v>251.6973914949265</v>
       </c>
       <c r="L18" t="n">
-        <v>477.8506509775801</v>
+        <v>661.4480243753522</v>
       </c>
       <c r="M18" t="n">
-        <v>1014.146827758681</v>
+        <v>1197.744201156453</v>
       </c>
       <c r="N18" t="n">
-        <v>1578.032071547365</v>
+        <v>1761.629444945137</v>
       </c>
       <c r="O18" t="n">
-        <v>2018.368674122673</v>
+        <v>2201.966047520445</v>
       </c>
       <c r="P18" t="n">
-        <v>2359.098500262959</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Q18" t="n">
         <v>2542.695873660731</v>
       </c>
       <c r="R18" t="n">
-        <v>2495.728130619193</v>
+        <v>2495.728130619192</v>
       </c>
       <c r="S18" t="n">
-        <v>2346.762917934841</v>
+        <v>2346.762917934842</v>
       </c>
       <c r="T18" t="n">
-        <v>2158.909856151446</v>
+        <v>2158.909856151447</v>
       </c>
       <c r="U18" t="n">
-        <v>1940.428644414347</v>
+        <v>1940.428644414348</v>
       </c>
       <c r="V18" t="n">
-        <v>1712.033021862681</v>
+        <v>1712.033021862682</v>
       </c>
       <c r="W18" t="n">
-        <v>1470.717153095991</v>
+        <v>1470.717153095992</v>
       </c>
       <c r="X18" t="n">
         <v>1272.800164973786</v>
@@ -5700,19 +5700,19 @@
         <v>724.8700896544217</v>
       </c>
       <c r="S19" t="n">
-        <v>724.8700896544217</v>
+        <v>624.1911187916555</v>
       </c>
       <c r="T19" t="n">
-        <v>724.8700896544217</v>
+        <v>624.1911187916555</v>
       </c>
       <c r="U19" t="n">
-        <v>724.8700896544217</v>
+        <v>337.0103189558155</v>
       </c>
       <c r="V19" t="n">
-        <v>464.1347852128443</v>
+        <v>337.0103189558155</v>
       </c>
       <c r="W19" t="n">
-        <v>177.9783837302434</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="X19" t="n">
         <v>50.85391747321462</v>
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1333.752264082568</v>
+        <v>1181.918880966179</v>
       </c>
       <c r="C20" t="n">
-        <v>951.8185054153753</v>
+        <v>1181.918880966179</v>
       </c>
       <c r="D20" t="n">
-        <v>951.8185054153753</v>
+        <v>1181.918880966179</v>
       </c>
       <c r="E20" t="n">
-        <v>951.8185054153753</v>
+        <v>1181.918880966179</v>
       </c>
       <c r="F20" t="n">
-        <v>537.6673147255457</v>
+        <v>795.442201146388</v>
       </c>
       <c r="G20" t="n">
-        <v>537.6673147255457</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="H20" t="n">
-        <v>208.797208433249</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I20" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J20" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532634</v>
       </c>
       <c r="K20" t="n">
-        <v>443.1860302481634</v>
+        <v>443.1860302481632</v>
       </c>
       <c r="L20" t="n">
-        <v>850.743399890712</v>
+        <v>850.7433998907118</v>
       </c>
       <c r="M20" t="n">
         <v>1310.379159876956</v>
@@ -5770,34 +5770,34 @@
         <v>2124.896977382889</v>
       </c>
       <c r="P20" t="n">
-        <v>2407.429665198536</v>
+        <v>2407.429665198535</v>
       </c>
       <c r="Q20" t="n">
         <v>2542.695873660731</v>
       </c>
       <c r="R20" t="n">
-        <v>2476.292672113454</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S20" t="n">
-        <v>2476.292672113454</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T20" t="n">
-        <v>2476.292672113454</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="U20" t="n">
-        <v>2476.292672113454</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="V20" t="n">
-        <v>2476.292672113454</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="W20" t="n">
-        <v>2476.292672113454</v>
+        <v>1957.490876868847</v>
       </c>
       <c r="X20" t="n">
-        <v>2121.337659024749</v>
+        <v>1575.460736390341</v>
       </c>
       <c r="Y20" t="n">
-        <v>1727.795803600587</v>
+        <v>1181.918880966179</v>
       </c>
     </row>
     <row r="21">
@@ -5807,58 +5807,58 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>920.859395842105</v>
+        <v>920.8593958421042</v>
       </c>
       <c r="C21" t="n">
-        <v>759.1557230830587</v>
+        <v>759.155723083059</v>
       </c>
       <c r="D21" t="n">
-        <v>620.3170860732707</v>
+        <v>620.3170860732712</v>
       </c>
       <c r="E21" t="n">
-        <v>473.2890761301419</v>
+        <v>473.2890761301423</v>
       </c>
       <c r="F21" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800167</v>
       </c>
       <c r="G21" t="n">
         <v>210.0732042050868</v>
       </c>
       <c r="H21" t="n">
-        <v>112.1289883137699</v>
+        <v>112.1289883137697</v>
       </c>
       <c r="I21" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J21" t="n">
-        <v>130.222699216255</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="K21" t="n">
         <v>392.3832078845234</v>
       </c>
       <c r="L21" t="n">
-        <v>802.1338407649492</v>
+        <v>802.1338407649491</v>
       </c>
       <c r="M21" t="n">
-        <v>1338.43001754605</v>
+        <v>1338.430017546049</v>
       </c>
       <c r="N21" t="n">
-        <v>1902.315261334734</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O21" t="n">
-        <v>2342.651863910042</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P21" t="n">
-        <v>2542.695873660731</v>
+        <v>2359.098500262959</v>
       </c>
       <c r="Q21" t="n">
         <v>2542.695873660731</v>
       </c>
       <c r="R21" t="n">
-        <v>2495.728130619193</v>
+        <v>2495.728130619192</v>
       </c>
       <c r="S21" t="n">
-        <v>2346.762917934842</v>
+        <v>2346.762917934841</v>
       </c>
       <c r="T21" t="n">
         <v>2158.909856151447</v>
@@ -5873,10 +5873,10 @@
         <v>1470.717153095992</v>
       </c>
       <c r="X21" t="n">
-        <v>1272.800164973787</v>
+        <v>1272.800164973786</v>
       </c>
       <c r="Y21" t="n">
-        <v>1080.278838623366</v>
+        <v>1080.278838623365</v>
       </c>
     </row>
     <row r="22">
@@ -5940,16 +5940,16 @@
         <v>724.8700896544217</v>
       </c>
       <c r="T22" t="n">
-        <v>492.4305776831416</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="U22" t="n">
-        <v>205.2497778473016</v>
+        <v>437.6892898185817</v>
       </c>
       <c r="V22" t="n">
-        <v>205.2497778473016</v>
+        <v>437.6892898185817</v>
       </c>
       <c r="W22" t="n">
-        <v>205.2497778473016</v>
+        <v>151.5328883359808</v>
       </c>
       <c r="X22" t="n">
         <v>50.85391747321462</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1354.003063045384</v>
+        <v>1253.547250316698</v>
       </c>
       <c r="C23" t="n">
-        <v>972.069304378191</v>
+        <v>1253.547250316698</v>
       </c>
       <c r="D23" t="n">
-        <v>599.2453396054145</v>
+        <v>880.7232855439211</v>
       </c>
       <c r="E23" t="n">
-        <v>599.2453396054145</v>
+        <v>880.7232855439211</v>
       </c>
       <c r="F23" t="n">
-        <v>537.6673147255457</v>
+        <v>466.5720948540913</v>
       </c>
       <c r="G23" t="n">
-        <v>537.6673147255457</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H23" t="n">
-        <v>208.797208433249</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I23" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J23" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532637</v>
       </c>
       <c r="K23" t="n">
-        <v>443.1860302481634</v>
+        <v>443.1860302481635</v>
       </c>
       <c r="L23" t="n">
-        <v>850.7433998907119</v>
+        <v>850.7433998907121</v>
       </c>
       <c r="M23" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N23" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O23" t="n">
         <v>2124.896977382889</v>
       </c>
       <c r="P23" t="n">
-        <v>2407.429665198536</v>
+        <v>2407.429665198535</v>
       </c>
       <c r="Q23" t="n">
         <v>2542.695873660731</v>
       </c>
       <c r="R23" t="n">
-        <v>2542.695873660731</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="S23" t="n">
-        <v>2364.258524637049</v>
+        <v>2297.855323089771</v>
       </c>
       <c r="T23" t="n">
-        <v>2141.588457987565</v>
+        <v>2075.185256440287</v>
       </c>
       <c r="U23" t="n">
-        <v>2141.588457987565</v>
+        <v>2029.620930313223</v>
       </c>
       <c r="V23" t="n">
-        <v>2141.588457987565</v>
+        <v>2029.620930313223</v>
       </c>
       <c r="W23" t="n">
-        <v>2141.588457987565</v>
+        <v>2029.620930313223</v>
       </c>
       <c r="X23" t="n">
-        <v>2141.588457987565</v>
+        <v>1647.590789834717</v>
       </c>
       <c r="Y23" t="n">
-        <v>1748.046602563403</v>
+        <v>1647.590789834717</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.3170860732707</v>
       </c>
       <c r="E24" t="n">
-        <v>473.289076130142</v>
+        <v>473.2890761301419</v>
       </c>
       <c r="F24" t="n">
         <v>338.5952780800163</v>
@@ -6068,28 +6068,28 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J24" t="n">
-        <v>130.2226992162549</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K24" t="n">
-        <v>130.2226992162549</v>
+        <v>313.0144261414831</v>
       </c>
       <c r="L24" t="n">
-        <v>477.8506509775805</v>
+        <v>722.7650590219089</v>
       </c>
       <c r="M24" t="n">
-        <v>1014.146827758681</v>
+        <v>1259.061235803009</v>
       </c>
       <c r="N24" t="n">
-        <v>1578.032071547366</v>
+        <v>1822.946479591694</v>
       </c>
       <c r="O24" t="n">
-        <v>2018.368674122673</v>
+        <v>2263.283082167001</v>
       </c>
       <c r="P24" t="n">
-        <v>2359.098500262959</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="Q24" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R24" t="n">
         <v>2495.728130619192</v>
@@ -6156,37 +6156,37 @@
         <v>229.9889654324849</v>
       </c>
       <c r="M25" t="n">
-        <v>374.5706761520456</v>
+        <v>374.5706761520457</v>
       </c>
       <c r="N25" t="n">
-        <v>518.9490144159677</v>
+        <v>518.9490144159678</v>
       </c>
       <c r="O25" t="n">
-        <v>641.3872247924078</v>
+        <v>641.3872247924079</v>
       </c>
       <c r="P25" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="Q25" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="R25" t="n">
-        <v>714.8353268001729</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="S25" t="n">
-        <v>504.1415403855618</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="T25" t="n">
-        <v>504.1415403855618</v>
+        <v>533.624380722515</v>
       </c>
       <c r="U25" t="n">
-        <v>504.1415403855618</v>
+        <v>533.624380722515</v>
       </c>
       <c r="V25" t="n">
-        <v>504.1415403855618</v>
+        <v>272.8890762809376</v>
       </c>
       <c r="W25" t="n">
-        <v>504.1415403855618</v>
+        <v>272.8890762809376</v>
       </c>
       <c r="X25" t="n">
         <v>272.8890762809376</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2148.652334142711</v>
+        <v>558.5765259336888</v>
       </c>
       <c r="C26" t="n">
-        <v>1766.718575475519</v>
+        <v>558.5765259336888</v>
       </c>
       <c r="D26" t="n">
-        <v>1393.894610702742</v>
+        <v>445.6396373671078</v>
       </c>
       <c r="E26" t="n">
-        <v>999.1088908088491</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F26" t="n">
-        <v>584.9577001190194</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G26" t="n">
-        <v>169.2395227381426</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H26" t="n">
         <v>50.85391747321462</v>
@@ -6226,10 +6226,10 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J26" t="n">
-        <v>154.9459054532638</v>
+        <v>154.9459054532636</v>
       </c>
       <c r="K26" t="n">
-        <v>443.1860302481636</v>
+        <v>443.1860302481635</v>
       </c>
       <c r="L26" t="n">
         <v>850.7433998907121</v>
@@ -6256,22 +6256,22 @@
         <v>2542.695873660731</v>
       </c>
       <c r="T26" t="n">
-        <v>2542.695873660731</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="U26" t="n">
-        <v>2542.695873660731</v>
+        <v>2065.171335458435</v>
       </c>
       <c r="V26" t="n">
-        <v>2542.695873660731</v>
+        <v>1728.192061354377</v>
       </c>
       <c r="W26" t="n">
-        <v>2542.695873660731</v>
+        <v>1728.192061354377</v>
       </c>
       <c r="X26" t="n">
-        <v>2542.695873660731</v>
+        <v>1346.16192087587</v>
       </c>
       <c r="Y26" t="n">
-        <v>2542.695873660731</v>
+        <v>952.620065451708</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>920.8593958421039</v>
+        <v>920.8593958421037</v>
       </c>
       <c r="C27" t="n">
-        <v>759.1557230830587</v>
+        <v>759.1557230830585</v>
       </c>
       <c r="D27" t="n">
         <v>620.3170860732707</v>
@@ -6293,7 +6293,7 @@
         <v>473.2890761301419</v>
       </c>
       <c r="F27" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800162</v>
       </c>
       <c r="G27" t="n">
         <v>210.0732042050868</v>
@@ -6308,10 +6308,10 @@
         <v>50.85391747321462</v>
       </c>
       <c r="K27" t="n">
-        <v>251.6973914949265</v>
+        <v>313.0144261414831</v>
       </c>
       <c r="L27" t="n">
-        <v>661.4480243753522</v>
+        <v>722.7650590219089</v>
       </c>
       <c r="M27" t="n">
         <v>1197.744201156453</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>220.4698870115343</v>
+        <v>372.4789012502155</v>
       </c>
       <c r="C28" t="n">
-        <v>50.85391747321462</v>
+        <v>202.8629317118958</v>
       </c>
       <c r="D28" t="n">
-        <v>50.85391747321462</v>
+        <v>202.8629317118958</v>
       </c>
       <c r="E28" t="n">
         <v>50.85391747321462</v>
@@ -6393,43 +6393,43 @@
         <v>229.9889654324849</v>
       </c>
       <c r="M28" t="n">
-        <v>374.5706761520456</v>
+        <v>374.5706761520457</v>
       </c>
       <c r="N28" t="n">
-        <v>518.9490144159677</v>
+        <v>518.9490144159678</v>
       </c>
       <c r="O28" t="n">
-        <v>641.3872247924078</v>
+        <v>641.3872247924079</v>
       </c>
       <c r="P28" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="Q28" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="R28" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="S28" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="T28" t="n">
-        <v>492.4305776831415</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="U28" t="n">
-        <v>492.4305776831415</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="V28" t="n">
-        <v>492.4305776831415</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="W28" t="n">
-        <v>492.4305776831415</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="X28" t="n">
-        <v>442.5050458192572</v>
+        <v>493.6176255497975</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.4698870115343</v>
+        <v>493.6176255497975</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2148.652334142711</v>
+        <v>983.6269907334711</v>
       </c>
       <c r="C29" t="n">
-        <v>1766.718575475519</v>
+        <v>601.6932320662784</v>
       </c>
       <c r="D29" t="n">
-        <v>1393.894610702742</v>
+        <v>228.8692672935019</v>
       </c>
       <c r="E29" t="n">
-        <v>999.1088908088491</v>
+        <v>228.8692672935019</v>
       </c>
       <c r="F29" t="n">
-        <v>624.5153858141257</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G29" t="n">
-        <v>208.797208433249</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H29" t="n">
-        <v>208.797208433249</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I29" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J29" t="n">
-        <v>154.9459054532636</v>
+        <v>154.9459054532637</v>
       </c>
       <c r="K29" t="n">
-        <v>443.1860302481634</v>
+        <v>443.1860302481635</v>
       </c>
       <c r="L29" t="n">
-        <v>850.7433998907122</v>
+        <v>850.7433998907121</v>
       </c>
       <c r="M29" t="n">
         <v>1310.379159876956</v>
@@ -6493,22 +6493,22 @@
         <v>2542.695873660731</v>
       </c>
       <c r="T29" t="n">
-        <v>2542.695873660731</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="U29" t="n">
-        <v>2542.695873660731</v>
+        <v>2065.171335458435</v>
       </c>
       <c r="V29" t="n">
-        <v>2542.695873660731</v>
+        <v>1728.192061354377</v>
       </c>
       <c r="W29" t="n">
-        <v>2542.695873660731</v>
+        <v>1365.657131211978</v>
       </c>
       <c r="X29" t="n">
-        <v>2542.695873660731</v>
+        <v>983.6269907334711</v>
       </c>
       <c r="Y29" t="n">
-        <v>2542.695873660731</v>
+        <v>983.6269907334711</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>50.85391747321462</v>
       </c>
       <c r="K30" t="n">
-        <v>313.014426141483</v>
+        <v>313.0144261414831</v>
       </c>
       <c r="L30" t="n">
-        <v>722.7650590219088</v>
+        <v>722.7650590219089</v>
       </c>
       <c r="M30" t="n">
         <v>1259.061235803009</v>
       </c>
       <c r="N30" t="n">
-        <v>1761.629444945137</v>
+        <v>1822.946479591694</v>
       </c>
       <c r="O30" t="n">
-        <v>2201.966047520444</v>
+        <v>2263.283082167001</v>
       </c>
       <c r="P30" t="n">
         <v>2542.69587366073</v>
@@ -6630,43 +6630,43 @@
         <v>229.9889654324849</v>
       </c>
       <c r="M31" t="n">
-        <v>374.5706761520456</v>
+        <v>374.5706761520457</v>
       </c>
       <c r="N31" t="n">
-        <v>518.9490144159677</v>
+        <v>518.9490144159678</v>
       </c>
       <c r="O31" t="n">
-        <v>641.3872247924078</v>
+        <v>641.3872247924079</v>
       </c>
       <c r="P31" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="Q31" t="n">
-        <v>724.8700896544216</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="R31" t="n">
-        <v>677.5425845434856</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="S31" t="n">
-        <v>466.8487981288746</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="T31" t="n">
-        <v>234.4092861575944</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="U31" t="n">
-        <v>234.4092861575944</v>
+        <v>437.6892898185817</v>
       </c>
       <c r="V31" t="n">
-        <v>234.4092861575944</v>
+        <v>437.6892898185817</v>
       </c>
       <c r="W31" t="n">
-        <v>234.4092861575944</v>
+        <v>151.5328883359808</v>
       </c>
       <c r="X31" t="n">
-        <v>234.4092861575944</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="Y31" t="n">
-        <v>234.4092861575944</v>
+        <v>50.85391747321462</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2253.622605463969</v>
+        <v>1207.474537004519</v>
       </c>
       <c r="C32" t="n">
-        <v>1871.688846796776</v>
+        <v>1207.474537004519</v>
       </c>
       <c r="D32" t="n">
-        <v>1498.864882024</v>
+        <v>1207.474537004519</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.079162130107</v>
+        <v>812.6888171106257</v>
       </c>
       <c r="F32" t="n">
-        <v>795.442201146388</v>
+        <v>812.6888171106257</v>
       </c>
       <c r="G32" t="n">
-        <v>379.7240237655113</v>
+        <v>396.9706397297489</v>
       </c>
       <c r="H32" t="n">
-        <v>50.85391747321462</v>
+        <v>68.10053343745221</v>
       </c>
       <c r="I32" t="n">
         <v>50.85391747321462</v>
@@ -6703,7 +6703,7 @@
         <v>154.9459054532635</v>
       </c>
       <c r="K32" t="n">
-        <v>443.1860302481634</v>
+        <v>443.1860302481633</v>
       </c>
       <c r="L32" t="n">
         <v>850.7433998907119</v>
@@ -6724,28 +6724,28 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R32" t="n">
-        <v>2476.292672113454</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S32" t="n">
-        <v>2476.292672113454</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T32" t="n">
-        <v>2253.622605463969</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="U32" t="n">
-        <v>2253.622605463969</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="V32" t="n">
-        <v>2253.622605463969</v>
+        <v>1983.046532907188</v>
       </c>
       <c r="W32" t="n">
-        <v>2253.622605463969</v>
+        <v>1983.046532907188</v>
       </c>
       <c r="X32" t="n">
-        <v>2253.622605463969</v>
+        <v>1601.016392428681</v>
       </c>
       <c r="Y32" t="n">
-        <v>2253.622605463969</v>
+        <v>1207.474537004519</v>
       </c>
     </row>
     <row r="33">
@@ -6773,7 +6773,7 @@
         <v>210.0732042050874</v>
       </c>
       <c r="H33" t="n">
-        <v>112.1289883137699</v>
+        <v>112.1289883137705</v>
       </c>
       <c r="I33" t="n">
         <v>50.85391747321462</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>724.8700896544216</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="C34" t="n">
-        <v>724.8700896544216</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D34" t="n">
-        <v>724.8700896544216</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E34" t="n">
-        <v>572.8610754157404</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F34" t="n">
-        <v>420.3804204415175</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G34" t="n">
-        <v>251.6337325188026</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H34" t="n">
-        <v>93.79975433287248</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I34" t="n">
         <v>50.85391747321462</v>
@@ -6867,7 +6867,7 @@
         <v>229.9889654324849</v>
       </c>
       <c r="M34" t="n">
-        <v>374.5706761520456</v>
+        <v>374.5706761520457</v>
       </c>
       <c r="N34" t="n">
         <v>518.9490144159677</v>
@@ -6888,22 +6888,22 @@
         <v>724.8700896544216</v>
       </c>
       <c r="T34" t="n">
-        <v>724.8700896544216</v>
+        <v>492.4305776831415</v>
       </c>
       <c r="U34" t="n">
-        <v>724.8700896544216</v>
+        <v>205.2497778473015</v>
       </c>
       <c r="V34" t="n">
-        <v>724.8700896544216</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="W34" t="n">
-        <v>724.8700896544216</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="X34" t="n">
-        <v>724.8700896544216</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="Y34" t="n">
-        <v>724.8700896544216</v>
+        <v>50.85391747321462</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1426.287245369457</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="C35" t="n">
-        <v>1044.353486702264</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="D35" t="n">
-        <v>671.5295219294876</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="E35" t="n">
-        <v>671.5295219294876</v>
+        <v>880.7232855439211</v>
       </c>
       <c r="F35" t="n">
-        <v>671.5295219294876</v>
+        <v>466.5720948540913</v>
       </c>
       <c r="G35" t="n">
-        <v>537.6673147255457</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H35" t="n">
-        <v>208.797208433249</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I35" t="n">
         <v>50.85391747321462</v>
@@ -6961,28 +6961,28 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R35" t="n">
-        <v>2476.292672113454</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S35" t="n">
-        <v>2297.855323089771</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T35" t="n">
-        <v>2075.185256440287</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="U35" t="n">
-        <v>1820.330784887476</v>
+        <v>2065.171335458435</v>
       </c>
       <c r="V35" t="n">
-        <v>1820.330784887476</v>
+        <v>1728.192061354377</v>
       </c>
       <c r="W35" t="n">
-        <v>1820.330784887476</v>
+        <v>1669.552544955833</v>
       </c>
       <c r="X35" t="n">
-        <v>1820.330784887476</v>
+        <v>1669.552544955833</v>
       </c>
       <c r="Y35" t="n">
-        <v>1820.330784887476</v>
+        <v>1669.552544955833</v>
       </c>
     </row>
     <row r="36">
@@ -7019,22 +7019,22 @@
         <v>50.85391747321462</v>
       </c>
       <c r="K36" t="n">
-        <v>313.014426141483</v>
+        <v>251.6973914949265</v>
       </c>
       <c r="L36" t="n">
-        <v>722.7650590219088</v>
+        <v>661.4480243753522</v>
       </c>
       <c r="M36" t="n">
-        <v>1259.061235803009</v>
+        <v>1197.744201156453</v>
       </c>
       <c r="N36" t="n">
-        <v>1822.946479591694</v>
+        <v>1761.629444945137</v>
       </c>
       <c r="O36" t="n">
-        <v>2263.283082167001</v>
+        <v>2201.966047520445</v>
       </c>
       <c r="P36" t="n">
-        <v>2359.098500262959</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Q36" t="n">
         <v>2542.695873660731</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>541.3147209700418</v>
+        <v>355.3435866861187</v>
       </c>
       <c r="C37" t="n">
-        <v>541.3147209700418</v>
+        <v>355.3435866861187</v>
       </c>
       <c r="D37" t="n">
-        <v>388.2428277978045</v>
+        <v>355.3435866861187</v>
       </c>
       <c r="E37" t="n">
-        <v>388.2428277978045</v>
+        <v>203.3345724474375</v>
       </c>
       <c r="F37" t="n">
-        <v>388.2428277978045</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G37" t="n">
-        <v>219.4961398750896</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H37" t="n">
-        <v>61.66216168915943</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I37" t="n">
         <v>50.85391747321462</v>
@@ -7104,7 +7104,7 @@
         <v>229.9889654324849</v>
       </c>
       <c r="M37" t="n">
-        <v>374.5706761520456</v>
+        <v>374.5706761520457</v>
       </c>
       <c r="N37" t="n">
         <v>518.9490144159677</v>
@@ -7125,22 +7125,22 @@
         <v>724.8700896544216</v>
       </c>
       <c r="T37" t="n">
-        <v>724.8700896544216</v>
+        <v>642.5243865219586</v>
       </c>
       <c r="U37" t="n">
-        <v>724.8700896544216</v>
+        <v>355.3435866861187</v>
       </c>
       <c r="V37" t="n">
-        <v>724.8700896544216</v>
+        <v>355.3435866861187</v>
       </c>
       <c r="W37" t="n">
-        <v>724.8700896544216</v>
+        <v>355.3435866861187</v>
       </c>
       <c r="X37" t="n">
-        <v>724.8700896544216</v>
+        <v>355.3435866861187</v>
       </c>
       <c r="Y37" t="n">
-        <v>724.8700896544216</v>
+        <v>355.3435866861187</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1221.32981829406</v>
+        <v>1306.677136692766</v>
       </c>
       <c r="C38" t="n">
-        <v>839.3960596268678</v>
+        <v>924.7433780255731</v>
       </c>
       <c r="D38" t="n">
-        <v>466.5720948540913</v>
+        <v>924.7433780255731</v>
       </c>
       <c r="E38" t="n">
-        <v>466.5720948540913</v>
+        <v>529.9576581316799</v>
       </c>
       <c r="F38" t="n">
-        <v>466.5720948540913</v>
+        <v>529.9576581316799</v>
       </c>
       <c r="G38" t="n">
-        <v>50.85391747321462</v>
+        <v>114.2394807508031</v>
       </c>
       <c r="H38" t="n">
         <v>50.85391747321462</v>
@@ -7174,19 +7174,19 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J38" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532638</v>
       </c>
       <c r="K38" t="n">
-        <v>443.1860302481634</v>
+        <v>443.1860302481636</v>
       </c>
       <c r="L38" t="n">
-        <v>850.7433998907119</v>
+        <v>850.7433998907121</v>
       </c>
       <c r="M38" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N38" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O38" t="n">
         <v>2124.896977382889</v>
@@ -7201,25 +7201,25 @@
         <v>2476.292672113454</v>
       </c>
       <c r="S38" t="n">
-        <v>2297.855323089771</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="T38" t="n">
-        <v>2075.185256440287</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="U38" t="n">
-        <v>2008.915213236241</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="V38" t="n">
-        <v>2008.915213236241</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="W38" t="n">
-        <v>2008.915213236241</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="X38" t="n">
-        <v>2008.915213236241</v>
+        <v>2094.262531634947</v>
       </c>
       <c r="Y38" t="n">
-        <v>1615.37335781208</v>
+        <v>1700.720676210785</v>
       </c>
     </row>
     <row r="39">
@@ -7262,7 +7262,7 @@
         <v>802.1338407649491</v>
       </c>
       <c r="M39" t="n">
-        <v>1338.430017546049</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N39" t="n">
         <v>1578.032071547365</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>50.85391747321462</v>
+        <v>205.2497778473015</v>
       </c>
       <c r="C40" t="n">
         <v>50.85391747321462</v>
@@ -7341,7 +7341,7 @@
         <v>229.9889654324849</v>
       </c>
       <c r="M40" t="n">
-        <v>374.5706761520456</v>
+        <v>374.5706761520457</v>
       </c>
       <c r="N40" t="n">
         <v>518.9490144159677</v>
@@ -7359,25 +7359,25 @@
         <v>724.8700896544216</v>
       </c>
       <c r="S40" t="n">
-        <v>570.4742292803347</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="T40" t="n">
-        <v>338.0347173090546</v>
+        <v>492.4305776831415</v>
       </c>
       <c r="U40" t="n">
-        <v>50.85391747321462</v>
+        <v>205.2497778473015</v>
       </c>
       <c r="V40" t="n">
-        <v>50.85391747321462</v>
+        <v>205.2497778473015</v>
       </c>
       <c r="W40" t="n">
-        <v>50.85391747321462</v>
+        <v>205.2497778473015</v>
       </c>
       <c r="X40" t="n">
-        <v>50.85391747321462</v>
+        <v>205.2497778473015</v>
       </c>
       <c r="Y40" t="n">
-        <v>50.85391747321462</v>
+        <v>205.2497778473015</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1334.148521836358</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="C41" t="n">
-        <v>952.2147631691648</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="D41" t="n">
-        <v>579.3907983963884</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="E41" t="n">
-        <v>537.6673147255457</v>
+        <v>880.7232855439211</v>
       </c>
       <c r="F41" t="n">
-        <v>537.6673147255457</v>
+        <v>466.5720948540913</v>
       </c>
       <c r="G41" t="n">
-        <v>537.6673147255457</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H41" t="n">
-        <v>208.797208433249</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I41" t="n">
         <v>50.85391747321462</v>
@@ -7438,25 +7438,25 @@
         <v>2542.695873660731</v>
       </c>
       <c r="S41" t="n">
-        <v>2542.695873660731</v>
+        <v>2364.258524637049</v>
       </c>
       <c r="T41" t="n">
-        <v>2320.025807011246</v>
+        <v>2141.588457987564</v>
       </c>
       <c r="U41" t="n">
-        <v>2065.171335458435</v>
+        <v>1886.733986434753</v>
       </c>
       <c r="V41" t="n">
-        <v>1728.192061354377</v>
+        <v>1669.552544955833</v>
       </c>
       <c r="W41" t="n">
-        <v>1728.192061354377</v>
+        <v>1669.552544955833</v>
       </c>
       <c r="X41" t="n">
-        <v>1728.192061354377</v>
+        <v>1669.552544955833</v>
       </c>
       <c r="Y41" t="n">
-        <v>1728.192061354377</v>
+        <v>1669.552544955833</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>130.2226992162549</v>
       </c>
       <c r="K42" t="n">
-        <v>251.6973914949265</v>
+        <v>392.3832078845233</v>
       </c>
       <c r="L42" t="n">
-        <v>661.4480243753522</v>
+        <v>477.8506509775798</v>
       </c>
       <c r="M42" t="n">
-        <v>1197.744201156453</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N42" t="n">
-        <v>1761.629444945137</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O42" t="n">
-        <v>2201.966047520445</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P42" t="n">
-        <v>2542.695873660731</v>
+        <v>2359.098500262959</v>
       </c>
       <c r="Q42" t="n">
         <v>2542.695873660731</v>
@@ -7578,7 +7578,7 @@
         <v>229.9889654324849</v>
       </c>
       <c r="M43" t="n">
-        <v>374.5706761520456</v>
+        <v>374.5706761520457</v>
       </c>
       <c r="N43" t="n">
         <v>518.9490144159677</v>
@@ -7596,19 +7596,19 @@
         <v>724.8700896544216</v>
       </c>
       <c r="S43" t="n">
-        <v>570.4742292803347</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="T43" t="n">
-        <v>338.0347173090546</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="U43" t="n">
-        <v>50.85391747321462</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="V43" t="n">
-        <v>50.85391747321462</v>
+        <v>464.1347852128442</v>
       </c>
       <c r="W43" t="n">
-        <v>50.85391747321462</v>
+        <v>177.9783837302433</v>
       </c>
       <c r="X43" t="n">
         <v>50.85391747321462</v>
@@ -7672,22 +7672,22 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R44" t="n">
-        <v>2542.695873660731</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="S44" t="n">
-        <v>2540.618938582291</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="T44" t="n">
-        <v>2317.948871932806</v>
+        <v>2445.124540858502</v>
       </c>
       <c r="U44" t="n">
-        <v>2063.094400379995</v>
+        <v>2445.124540858502</v>
       </c>
       <c r="V44" t="n">
-        <v>2063.094400379995</v>
+        <v>2445.124540858502</v>
       </c>
       <c r="W44" t="n">
-        <v>2063.094400379995</v>
+        <v>2445.124540858502</v>
       </c>
       <c r="X44" t="n">
         <v>2063.094400379995</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>207.4612240671965</v>
+        <v>514.1763032398105</v>
       </c>
       <c r="C46" t="n">
-        <v>50.85391747321462</v>
+        <v>344.5603337014908</v>
       </c>
       <c r="D46" t="n">
-        <v>50.85391747321462</v>
+        <v>191.4884405292535</v>
       </c>
       <c r="E46" t="n">
-        <v>50.85391747321462</v>
+        <v>191.4884405292535</v>
       </c>
       <c r="F46" t="n">
-        <v>50.85391747321462</v>
+        <v>191.4884405292535</v>
       </c>
       <c r="G46" t="n">
         <v>50.85391747321462</v>
@@ -7833,25 +7833,25 @@
         <v>724.8700896544216</v>
       </c>
       <c r="S46" t="n">
-        <v>724.8700896544216</v>
+        <v>514.1763032398105</v>
       </c>
       <c r="T46" t="n">
-        <v>724.8700896544216</v>
+        <v>514.1763032398105</v>
       </c>
       <c r="U46" t="n">
-        <v>724.8700896544216</v>
+        <v>514.1763032398105</v>
       </c>
       <c r="V46" t="n">
-        <v>724.8700896544216</v>
+        <v>514.1763032398105</v>
       </c>
       <c r="W46" t="n">
-        <v>438.7136881718207</v>
+        <v>514.1763032398105</v>
       </c>
       <c r="X46" t="n">
-        <v>207.4612240671965</v>
+        <v>514.1763032398105</v>
       </c>
       <c r="Y46" t="n">
-        <v>207.4612240671965</v>
+        <v>514.1763032398105</v>
       </c>
     </row>
   </sheetData>
@@ -8063,19 +8063,19 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>482.0924488944969</v>
+        <v>338.0029786846563</v>
       </c>
       <c r="M3" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>570.0697896776412</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O3" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q3" t="n">
         <v>273.1004740566038</v>
@@ -8294,7 +8294,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
         <v>343.8048081163522</v>
@@ -8303,10 +8303,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>156.1797194573845</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>623.1450866466196</v>
+        <v>234.7709975048689</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8531,16 +8531,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
-        <v>325.5269987024317</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>605.4165828749999</v>
+        <v>156.1797194573845</v>
       </c>
       <c r="N9" t="n">
         <v>623.1450866466196</v>
@@ -8768,16 +8768,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>201.6979228743355</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>376.4077763449602</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
         <v>623.1450866466196</v>
@@ -8789,7 +8789,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.7351914448925</v>
+        <v>87.64858173562189</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9005,13 +9005,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>83.74785933339984</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>281.8684094834672</v>
+        <v>78.99621350193964</v>
       </c>
       <c r="L15" t="n">
-        <v>482.0924488944969</v>
+        <v>419.3422659459105</v>
       </c>
       <c r="M15" t="n">
         <v>605.4165828749999</v>
@@ -9026,7 +9026,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.64858173562189</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9166,7 +9166,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>421.3890363425141</v>
+        <v>421.3890363425143</v>
       </c>
       <c r="L17" t="n">
         <v>542.9595789155856</v>
@@ -9242,10 +9242,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>83.74785933339984</v>
+        <v>83.74785933339986</v>
       </c>
       <c r="K18" t="n">
-        <v>96.41651716248475</v>
+        <v>281.8684094834668</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9263,7 +9263,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562189</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9491,16 +9491,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>623.1450866466196</v>
+        <v>295.5863090836203</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>271.8947139899012</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.64858173562189</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236961</v>
       </c>
       <c r="K23" t="n">
         <v>421.3890363425141</v>
@@ -9716,13 +9716,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>83.74785933339986</v>
       </c>
       <c r="K24" t="n">
-        <v>78.99621350193966</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>419.3422659459109</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
@@ -9734,10 +9734,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>414.0015992319183</v>
+        <v>352.065200599032</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562189</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>219.8255997236961</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K26" t="n">
-        <v>421.3890363425141</v>
+        <v>421.3890363425143</v>
       </c>
       <c r="L26" t="n">
         <v>542.9595789155856</v>
@@ -9953,16 +9953,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>83.74785933339987</v>
+        <v>83.74785933339986</v>
       </c>
       <c r="K27" t="n">
-        <v>281.8684094834668</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>605.4165828749999</v>
+        <v>543.4801842421143</v>
       </c>
       <c r="N27" t="n">
         <v>623.1450866466196</v>
@@ -9974,7 +9974,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.64858173562192</v>
+        <v>87.64858173562189</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236961</v>
       </c>
       <c r="K29" t="n">
         <v>421.3890363425141</v>
@@ -10190,7 +10190,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>83.74785933339987</v>
+        <v>83.74785933339986</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
@@ -10202,16 +10202,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>561.2086880137338</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>414.0015992319183</v>
+        <v>352.065200599032</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.64858173562192</v>
+        <v>87.64858173562189</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10448,7 +10448,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.64858173562192</v>
+        <v>87.6485817356219</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10667,7 +10667,7 @@
         <v>83.74785933339987</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>281.8684094834668</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10682,10 +10682,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>166.6133082780511</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>87.6485817356219</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236961</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10843,7 +10843,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.009487857876</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10910,10 +10910,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>605.4165828749999</v>
+        <v>277.8578053120006</v>
       </c>
       <c r="N39" t="n">
-        <v>295.5863090836206</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11080,7 +11080,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
-        <v>276.0094878578761</v>
+        <v>276.009487857876</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11141,10 +11141,10 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>201.6979228743352</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>482.0924488944969</v>
+        <v>154.5336713314977</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
@@ -11159,7 +11159,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.64858173562192</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -22549,13 +22549,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>410.0096787829314</v>
@@ -22564,7 +22564,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>219.6683057772992</v>
+        <v>230.9904578932059</v>
       </c>
       <c r="I2" t="n">
         <v>171.0890268032919</v>
@@ -22609,13 +22609,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -22634,13 +22634,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>27.43752473892766</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>77.76768145210926</v>
       </c>
       <c r="H3" t="n">
         <v>98.93847887876893</v>
@@ -22673,10 +22673,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -22755,19 +22755,19 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>199.9995129451452</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
@@ -22783,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>45.41585547429361</v>
       </c>
       <c r="I5" t="n">
         <v>171.0890268032919</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>183.1723687120777</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>48.51673623083873</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>78.06733819343387</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -22956,16 +22956,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4884972741916158</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22998,13 +22998,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>40.87452179009296</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
@@ -23023,22 +23023,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>257.3707254978302</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>327.2658149687325</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -23068,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
@@ -23083,13 +23083,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -23108,16 +23108,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>35.94956097976362</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23150,13 +23150,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23223,25 +23223,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>101.8597073339676</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -23260,25 +23260,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
-        <v>378.1144210805207</v>
+        <v>20.95147187797761</v>
       </c>
       <c r="D11" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
-        <v>345.9828768181852</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.73916953180441</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23345,19 +23345,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.22665496485499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23430,16 +23430,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>167.2305511458285</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H13" t="n">
-        <v>157.7789187685189</v>
+        <v>156.2556384040709</v>
       </c>
       <c r="I13" t="n">
-        <v>142.7610139533483</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J13" t="n">
-        <v>59.456666199969</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.15196793284785</v>
+        <v>23.80540818138464</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S13" t="n">
-        <v>63.70773940111968</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>76.08803769323188</v>
       </c>
       <c r="U13" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>258.1279513971616</v>
@@ -23481,7 +23481,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X13" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>219.8148072196457</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>369.0957251250487</v>
@@ -23506,13 +23506,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>156.363858050434</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.73916953180441</v>
+        <v>65.73916953180442</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23554,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>117.3684284738534</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W14" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X14" t="n">
-        <v>378.2098390737216</v>
+        <v>66.0484968415995</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="15">
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.80540818138464</v>
+        <v>23.80540818138465</v>
       </c>
       <c r="R16" t="n">
         <v>140.32293915197</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>156.363858050434</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>98.07518736732131</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
-        <v>98.65634353035489</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="18">
@@ -23934,28 +23934,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>23.80540818138464</v>
+        <v>23.80540818138465</v>
       </c>
       <c r="R19" t="n">
         <v>140.32293915197</v>
       </c>
       <c r="S19" t="n">
-        <v>208.5868485504649</v>
+        <v>108.9146673963264</v>
       </c>
       <c r="T19" t="n">
         <v>230.1151168515673</v>
       </c>
       <c r="U19" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>103.0867178691195</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
         <v>219.8148072196457</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
         <v>369.0957251250487</v>
@@ -23980,16 +23980,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>27.39776576133863</v>
       </c>
       <c r="G20" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.73916953180442</v>
       </c>
       <c r="S20" t="n">
         <v>176.6529755334452</v>
       </c>
       <c r="T20" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>252.305926837283</v>
@@ -24031,10 +24031,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>26.80437611590361</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>23.80540818138464</v>
+        <v>23.80540818138465</v>
       </c>
       <c r="R22" t="n">
         <v>140.32293915197</v>
@@ -24180,7 +24180,7 @@
         <v>208.5868485504649</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>76.08803769323191</v>
+        <v>129.2677583094394</v>
       </c>
       <c r="Y22" t="n">
         <v>219.8148072196457</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,16 +24217,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
-        <v>349.0474341518612</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>252.305926837283</v>
+        <v>207.1972439714898</v>
       </c>
       <c r="V23" t="n">
         <v>333.6094813630181</v>
@@ -24271,10 +24271,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="24">
@@ -24387,7 +24387,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J25" t="n">
-        <v>47.34362796447565</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,28 +24408,28 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>23.80540818138466</v>
+        <v>23.80540818138465</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3885239262638</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T25" t="n">
-        <v>230.1151168515673</v>
+        <v>40.78186500897968</v>
       </c>
       <c r="U25" t="n">
         <v>284.3089918374816</v>
       </c>
       <c r="V25" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24445,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>257.2882054441334</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H26" t="n">
-        <v>208.379656017095</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I26" t="n">
         <v>156.363858050434</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.73916953180444</v>
+        <v>65.73916953180442</v>
       </c>
       <c r="S26" t="n">
         <v>176.6529755334452</v>
       </c>
       <c r="T26" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>181.719814997536</v>
+        <v>61.79247794094984</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>150.9558484244806</v>
@@ -24624,7 +24624,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J28" t="n">
-        <v>47.34362796447565</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>23.80540818138466</v>
+        <v>23.80540818138465</v>
       </c>
       <c r="R28" t="n">
         <v>140.32293915197</v>
@@ -24654,7 +24654,7 @@
         <v>208.5868485504649</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U28" t="n">
         <v>284.3089918374816</v>
@@ -24666,10 +24666,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X28" t="n">
-        <v>179.5136629183326</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
-        <v>39.16210883815523</v>
+        <v>233.7744824608469</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H29" t="n">
         <v>325.5814052293737</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.73916953180444</v>
+        <v>65.73916953180442</v>
       </c>
       <c r="S29" t="n">
         <v>176.6529755334452</v>
       </c>
       <c r="T29" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>389.6064368699203</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
         <v>167.9198098429365</v>
@@ -24861,7 +24861,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J31" t="n">
-        <v>47.34362796447565</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,28 +24882,28 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>23.80540818138466</v>
+        <v>23.80540818138465</v>
       </c>
       <c r="R31" t="n">
-        <v>93.46870909214343</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U31" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>228.939939463578</v>
+        <v>129.2677583094394</v>
       </c>
       <c r="Y31" t="n">
         <v>219.8148072196457</v>
@@ -24919,16 +24919,16 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>104.4590874090497</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>156.363858050434</v>
+        <v>139.2897082458388</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S32" t="n">
         <v>176.6529755334452</v>
@@ -24976,16 +24976,16 @@
         <v>252.305926837283</v>
       </c>
       <c r="V32" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25083,22 +25083,22 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.2556384040709</v>
       </c>
       <c r="I34" t="n">
-        <v>95.09227202098415</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J34" t="n">
-        <v>47.34362796447565</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>208.5868485504649</v>
       </c>
       <c r="T34" t="n">
-        <v>230.1151168515673</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>258.1279513971616</v>
+        <v>105.2760496268156</v>
       </c>
       <c r="W34" t="n">
         <v>283.2948374677749</v>
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>279.0374104751654</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,10 +25213,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>358.909580840975</v>
+        <v>300.8564596064172</v>
       </c>
       <c r="X35" t="n">
         <v>378.2098390737216</v>
@@ -25311,31 +25311,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C37" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.2556384040709</v>
       </c>
       <c r="I37" t="n">
-        <v>126.9084887382601</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J37" t="n">
-        <v>47.34362796447565</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>208.5868485504649</v>
       </c>
       <c r="T37" t="n">
-        <v>230.1151168515673</v>
+        <v>148.592870750429</v>
       </c>
       <c r="U37" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>258.1279513971616</v>
@@ -25396,10 +25396,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>410.0096787829314</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>325.5814052293737</v>
+        <v>262.8296975845611</v>
       </c>
       <c r="I38" t="n">
         <v>156.363858050434</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U38" t="n">
-        <v>186.6985840652779</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V38" t="n">
         <v>333.6094813630181</v>
@@ -25456,7 +25456,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
-        <v>167.9198098429365</v>
+        <v>15.06790807259054</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -25572,7 +25572,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J40" t="n">
-        <v>47.34362796447565</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>140.32293915197</v>
       </c>
       <c r="S40" t="n">
-        <v>55.73494678011897</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
-        <v>349.5316138608199</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S41" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>118.5998542988876</v>
       </c>
       <c r="W41" t="n">
         <v>358.909580840975</v>
@@ -25809,7 +25809,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J43" t="n">
-        <v>47.34362796447565</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>140.32293915197</v>
       </c>
       <c r="S43" t="n">
-        <v>55.73494678011897</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>228.939939463578</v>
+        <v>103.0867178691196</v>
       </c>
       <c r="Y43" t="n">
         <v>219.8148072196457</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.5968098057897</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>189.5869160405878</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
@@ -25930,7 +25930,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
-        <v>12.87857631489447</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
@@ -26037,7 +26037,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>167.0592210434877</v>
+        <v>27.8310432180092</v>
       </c>
       <c r="H46" t="n">
         <v>156.2556384040709</v>
@@ -26073,7 +26073,7 @@
         <v>140.32293915197</v>
       </c>
       <c r="S46" t="n">
-        <v>208.5868485504649</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>230.1151168515673</v>
@@ -26085,10 +26085,10 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
         <v>219.8148072196457</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>642649.3449188931</v>
+        <v>642649.3449188933</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>642649.3449188932</v>
+        <v>642649.3449188934</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>642649.3449188931</v>
+        <v>642649.3449188933</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>642649.3449188931</v>
+        <v>726972.7732303359</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>726972.7732303359</v>
+        <v>726972.773230336</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>726972.7732303359</v>
+        <v>726972.773230336</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>726972.7732303357</v>
+        <v>726972.7732303359</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>726972.7732303357</v>
+        <v>726972.773230336</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>726972.7732303358</v>
+        <v>726972.7732303357</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>726972.7732303357</v>
+        <v>726972.7732303358</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>726972.7732303359</v>
+        <v>726972.7732303357</v>
       </c>
     </row>
     <row r="16">
@@ -26316,28 +26316,28 @@
         <v>177136.19241358</v>
       </c>
       <c r="C2" t="n">
-        <v>177136.1924135799</v>
+        <v>177136.19241358</v>
       </c>
       <c r="D2" t="n">
         <v>177136.19241358</v>
       </c>
       <c r="E2" t="n">
-        <v>177136.1924135799</v>
+        <v>201968.048184667</v>
       </c>
       <c r="F2" t="n">
         <v>201968.048184667</v>
       </c>
       <c r="G2" t="n">
-        <v>201968.048184667</v>
+        <v>201968.0481846669</v>
       </c>
       <c r="H2" t="n">
-        <v>201968.048184667</v>
+        <v>201968.0481846669</v>
       </c>
       <c r="I2" t="n">
         <v>201968.0481846669</v>
       </c>
       <c r="J2" t="n">
-        <v>201968.0481846669</v>
+        <v>201968.048184667</v>
       </c>
       <c r="K2" t="n">
         <v>201968.0481846669</v>
@@ -26346,7 +26346,7 @@
         <v>201968.0481846669</v>
       </c>
       <c r="M2" t="n">
-        <v>201968.0481846669</v>
+        <v>201968.048184667</v>
       </c>
       <c r="N2" t="n">
         <v>201968.0481846669</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>109285.8666493013</v>
       </c>
       <c r="F3" t="n">
-        <v>106724.5343142068</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>137442.4307917771</v>
+        <v>137442.4307917772</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>27504.83665689657</v>
       </c>
       <c r="N3" t="n">
-        <v>27032.78088579522</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>45214.68101527123</v>
       </c>
       <c r="C4" t="n">
-        <v>45214.68101527124</v>
+        <v>45214.68101527123</v>
       </c>
       <c r="D4" t="n">
         <v>45214.68101527123</v>
       </c>
       <c r="E4" t="n">
-        <v>45214.68101527123</v>
+        <v>45815.73349615595</v>
       </c>
       <c r="F4" t="n">
         <v>45815.73349615595</v>
@@ -26435,7 +26435,7 @@
         <v>45815.73349615595</v>
       </c>
       <c r="H4" t="n">
-        <v>45815.73349615595</v>
+        <v>45815.73349615594</v>
       </c>
       <c r="I4" t="n">
         <v>45815.73349615595</v>
@@ -26456,10 +26456,10 @@
         <v>45815.73349615595</v>
       </c>
       <c r="O4" t="n">
-        <v>45815.73349615595</v>
+        <v>45815.73349615594</v>
       </c>
       <c r="P4" t="n">
-        <v>45815.73349615595</v>
+        <v>45815.73349615594</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>31938.4346369114</v>
+        <v>40720.20246230469</v>
       </c>
       <c r="F5" t="n">
         <v>40720.20246230469</v>
       </c>
       <c r="G5" t="n">
-        <v>40720.20246230469</v>
+        <v>40720.20246230468</v>
       </c>
       <c r="H5" t="n">
-        <v>40720.20246230469</v>
+        <v>40720.20246230468</v>
       </c>
       <c r="I5" t="n">
-        <v>40720.20246230469</v>
+        <v>40720.20246230468</v>
       </c>
       <c r="J5" t="n">
         <v>40720.20246230468</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-109685.70795613</v>
+        <v>-117805.2974426358</v>
       </c>
       <c r="C6" t="n">
-        <v>66355.47676139729</v>
+        <v>58235.88727489156</v>
       </c>
       <c r="D6" t="n">
-        <v>66355.47676139738</v>
+        <v>58235.88727489156</v>
       </c>
       <c r="E6" t="n">
-        <v>99983.0767613973</v>
+        <v>-421.3529239078134</v>
       </c>
       <c r="F6" t="n">
-        <v>8707.577911999579</v>
+        <v>108864.5137253935</v>
       </c>
       <c r="G6" t="n">
-        <v>115432.1122262064</v>
+        <v>108864.5137253934</v>
       </c>
       <c r="H6" t="n">
-        <v>115432.1122262064</v>
+        <v>108864.5137253935</v>
       </c>
       <c r="I6" t="n">
-        <v>115432.1122262063</v>
+        <v>108864.5137253935</v>
       </c>
       <c r="J6" t="n">
-        <v>-22010.31856557084</v>
+        <v>-28577.91706638361</v>
       </c>
       <c r="K6" t="n">
-        <v>115432.1122262063</v>
+        <v>108864.5137253935</v>
       </c>
       <c r="L6" t="n">
-        <v>115432.1122262063</v>
+        <v>108864.5137253935</v>
       </c>
       <c r="M6" t="n">
-        <v>115432.1122262062</v>
+        <v>81359.67706849692</v>
       </c>
       <c r="N6" t="n">
-        <v>88399.33134041104</v>
+        <v>108864.5137253934</v>
       </c>
       <c r="O6" t="n">
-        <v>115432.1122262063</v>
+        <v>108864.5137253935</v>
       </c>
       <c r="P6" t="n">
-        <v>115432.1122262063</v>
+        <v>108864.5137253934</v>
       </c>
     </row>
   </sheetData>
@@ -26746,37 +26746,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>95.01032947988881</v>
       </c>
       <c r="F3" t="n">
-        <v>95.01032947988881</v>
+        <v>95.0103294798888</v>
       </c>
       <c r="G3" t="n">
-        <v>95.01032947988881</v>
+        <v>95.0103294798888</v>
       </c>
       <c r="H3" t="n">
-        <v>95.01032947988881</v>
+        <v>95.0103294798888</v>
       </c>
       <c r="I3" t="n">
-        <v>95.01032947988871</v>
+        <v>95.0103294798888</v>
       </c>
       <c r="J3" t="n">
-        <v>95.01032947988871</v>
+        <v>95.0103294798888</v>
       </c>
       <c r="K3" t="n">
-        <v>95.01032947988871</v>
+        <v>95.0103294798888</v>
       </c>
       <c r="L3" t="n">
-        <v>95.01032947988871</v>
+        <v>95.01032947988874</v>
       </c>
       <c r="M3" t="n">
-        <v>95.01032947988871</v>
+        <v>95.01032947988874</v>
       </c>
       <c r="N3" t="n">
-        <v>95.01032947988871</v>
+        <v>95.01032947988874</v>
       </c>
       <c r="O3" t="n">
-        <v>95.01032947988871</v>
+        <v>95.01032947988874</v>
       </c>
       <c r="P3" t="n">
         <v>95.01032947988872</v>
@@ -26798,19 +26798,19 @@
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>525.3032012649902</v>
+        <v>635.6739684151828</v>
       </c>
       <c r="F4" t="n">
         <v>635.6739684151828</v>
       </c>
       <c r="G4" t="n">
-        <v>635.6739684151828</v>
+        <v>635.6739684151827</v>
       </c>
       <c r="H4" t="n">
-        <v>635.6739684151828</v>
+        <v>635.6739684151827</v>
       </c>
       <c r="I4" t="n">
-        <v>635.6739684151828</v>
+        <v>635.6739684151827</v>
       </c>
       <c r="J4" t="n">
         <v>635.6739684151827</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>95.01032947988881</v>
       </c>
       <c r="F3" t="n">
-        <v>95.01032947988881</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>110.3707671501925</v>
       </c>
       <c r="F4" t="n">
-        <v>110.3707671501926</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>525.3032012649902</v>
+        <v>525.3032012649904</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>110.3707671501925</v>
       </c>
       <c r="N4" t="n">
-        <v>110.3707671501926</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>110.3707671501925</v>
       </c>
       <c r="N4" t="n">
-        <v>110.3707671501926</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.3819510732859849</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>3.911656429290093</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.72516875285795</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>32.41761990630639</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>48.58560883850214</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>60.27474399757811</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>67.06726639712774</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>68.15248488410155</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>64.35445889911404</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>54.92504177736627</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>41.24641896531192</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>23.99273410730077</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>8.703710082504388</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.6719908233094</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.03055608586287878</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.2043618407680627</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1.973705146365238</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.03614232468988</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>19.30771233326684</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>32.99995566472705</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>44.37251283869713</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>51.7806295665394</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>53.15110875309365</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>48.62288059712763</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>39.02414834806981</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>26.08660970927061</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>12.68836060488025</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>3.795931559880461</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.8237216301133753</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.01344485794526729</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.1713301023407831</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.523280364448054</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>5.152363441302824</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>12.11303823549336</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>19.90544279922916</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>25.4721135789197</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>26.8567723151102</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>26.21817829729458</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>24.21673119267724</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>20.72159710492525</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>14.34655975146321</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>7.703624419795572</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.985816419884373</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.7320468009106185</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.00934527830949727</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,31 +31989,31 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3819510732859849</v>
+        <v>0.3819510732859848</v>
       </c>
       <c r="H14" t="n">
         <v>3.911656429290093</v>
       </c>
       <c r="I14" t="n">
-        <v>14.72516875285795</v>
+        <v>14.72516875285794</v>
       </c>
       <c r="J14" t="n">
-        <v>32.41761990630639</v>
+        <v>32.41761990630638</v>
       </c>
       <c r="K14" t="n">
-        <v>48.58560883850214</v>
+        <v>48.58560883850213</v>
       </c>
       <c r="L14" t="n">
-        <v>60.27474399757811</v>
+        <v>60.2747439975781</v>
       </c>
       <c r="M14" t="n">
-        <v>67.06726639712774</v>
+        <v>67.06726639712772</v>
       </c>
       <c r="N14" t="n">
-        <v>68.15248488410155</v>
+        <v>68.15248488410154</v>
       </c>
       <c r="O14" t="n">
-        <v>64.35445889911404</v>
+        <v>64.35445889911402</v>
       </c>
       <c r="P14" t="n">
         <v>54.92504177736627</v>
@@ -32028,7 +32028,7 @@
         <v>8.703710082504388</v>
       </c>
       <c r="T14" t="n">
-        <v>1.6719908233094</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U14" t="n">
         <v>0.03055608586287878</v>
@@ -32074,40 +32074,40 @@
         <v>1.973705146365238</v>
       </c>
       <c r="I15" t="n">
-        <v>7.03614232468988</v>
+        <v>7.036142324689879</v>
       </c>
       <c r="J15" t="n">
         <v>19.30771233326684</v>
       </c>
       <c r="K15" t="n">
-        <v>32.99995566472705</v>
+        <v>32.99995566472704</v>
       </c>
       <c r="L15" t="n">
         <v>44.37251283869713</v>
       </c>
       <c r="M15" t="n">
-        <v>51.7806295665394</v>
+        <v>51.78062956653939</v>
       </c>
       <c r="N15" t="n">
         <v>53.15110875309365</v>
       </c>
       <c r="O15" t="n">
-        <v>48.62288059712763</v>
+        <v>48.62288059712762</v>
       </c>
       <c r="P15" t="n">
-        <v>39.02414834806981</v>
+        <v>39.0241483480698</v>
       </c>
       <c r="Q15" t="n">
-        <v>26.08660970927061</v>
+        <v>26.0866097092706</v>
       </c>
       <c r="R15" t="n">
         <v>12.68836060488025</v>
       </c>
       <c r="S15" t="n">
-        <v>3.795931559880461</v>
+        <v>3.79593155988046</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8237216301133753</v>
+        <v>0.8237216301133752</v>
       </c>
       <c r="U15" t="n">
         <v>0.01344485794526729</v>
@@ -32153,13 +32153,13 @@
         <v>1.523280364448054</v>
       </c>
       <c r="I16" t="n">
-        <v>5.152363441302824</v>
+        <v>5.152363441302823</v>
       </c>
       <c r="J16" t="n">
         <v>12.11303823549336</v>
       </c>
       <c r="K16" t="n">
-        <v>19.90544279922916</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L16" t="n">
         <v>25.4721135789197</v>
@@ -32168,28 +32168,28 @@
         <v>26.8567723151102</v>
       </c>
       <c r="N16" t="n">
-        <v>26.21817829729458</v>
+        <v>26.21817829729457</v>
       </c>
       <c r="O16" t="n">
         <v>24.21673119267724</v>
       </c>
       <c r="P16" t="n">
-        <v>20.72159710492525</v>
+        <v>20.72159710492524</v>
       </c>
       <c r="Q16" t="n">
         <v>14.34655975146321</v>
       </c>
       <c r="R16" t="n">
-        <v>7.703624419795572</v>
+        <v>7.70362441979557</v>
       </c>
       <c r="S16" t="n">
         <v>2.985816419884373</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7320468009106185</v>
+        <v>0.7320468009106184</v>
       </c>
       <c r="U16" t="n">
-        <v>0.00934527830949727</v>
+        <v>0.009345278309497268</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,31 +32226,31 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3819510732859849</v>
+        <v>0.3819510732859848</v>
       </c>
       <c r="H17" t="n">
         <v>3.911656429290093</v>
       </c>
       <c r="I17" t="n">
-        <v>14.72516875285795</v>
+        <v>14.72516875285794</v>
       </c>
       <c r="J17" t="n">
-        <v>32.41761990630639</v>
+        <v>32.41761990630638</v>
       </c>
       <c r="K17" t="n">
-        <v>48.58560883850214</v>
+        <v>48.58560883850213</v>
       </c>
       <c r="L17" t="n">
-        <v>60.27474399757811</v>
+        <v>60.2747439975781</v>
       </c>
       <c r="M17" t="n">
-        <v>67.06726639712774</v>
+        <v>67.06726639712772</v>
       </c>
       <c r="N17" t="n">
-        <v>68.15248488410155</v>
+        <v>68.15248488410154</v>
       </c>
       <c r="O17" t="n">
-        <v>64.35445889911404</v>
+        <v>64.35445889911402</v>
       </c>
       <c r="P17" t="n">
         <v>54.92504177736627</v>
@@ -32265,7 +32265,7 @@
         <v>8.703710082504388</v>
       </c>
       <c r="T17" t="n">
-        <v>1.6719908233094</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U17" t="n">
         <v>0.03055608586287878</v>
@@ -32311,40 +32311,40 @@
         <v>1.973705146365238</v>
       </c>
       <c r="I18" t="n">
-        <v>7.03614232468988</v>
+        <v>7.036142324689879</v>
       </c>
       <c r="J18" t="n">
         <v>19.30771233326684</v>
       </c>
       <c r="K18" t="n">
-        <v>32.99995566472705</v>
+        <v>32.99995566472704</v>
       </c>
       <c r="L18" t="n">
         <v>44.37251283869713</v>
       </c>
       <c r="M18" t="n">
-        <v>51.7806295665394</v>
+        <v>51.78062956653939</v>
       </c>
       <c r="N18" t="n">
         <v>53.15110875309365</v>
       </c>
       <c r="O18" t="n">
-        <v>48.62288059712763</v>
+        <v>48.62288059712762</v>
       </c>
       <c r="P18" t="n">
-        <v>39.02414834806981</v>
+        <v>39.0241483480698</v>
       </c>
       <c r="Q18" t="n">
-        <v>26.08660970927061</v>
+        <v>26.0866097092706</v>
       </c>
       <c r="R18" t="n">
         <v>12.68836060488025</v>
       </c>
       <c r="S18" t="n">
-        <v>3.795931559880461</v>
+        <v>3.79593155988046</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8237216301133753</v>
+        <v>0.8237216301133752</v>
       </c>
       <c r="U18" t="n">
         <v>0.01344485794526729</v>
@@ -32390,13 +32390,13 @@
         <v>1.523280364448054</v>
       </c>
       <c r="I19" t="n">
-        <v>5.152363441302824</v>
+        <v>5.152363441302823</v>
       </c>
       <c r="J19" t="n">
         <v>12.11303823549336</v>
       </c>
       <c r="K19" t="n">
-        <v>19.90544279922916</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L19" t="n">
         <v>25.4721135789197</v>
@@ -32405,28 +32405,28 @@
         <v>26.8567723151102</v>
       </c>
       <c r="N19" t="n">
-        <v>26.21817829729458</v>
+        <v>26.21817829729457</v>
       </c>
       <c r="O19" t="n">
         <v>24.21673119267724</v>
       </c>
       <c r="P19" t="n">
-        <v>20.72159710492525</v>
+        <v>20.72159710492524</v>
       </c>
       <c r="Q19" t="n">
         <v>14.34655975146321</v>
       </c>
       <c r="R19" t="n">
-        <v>7.703624419795572</v>
+        <v>7.70362441979557</v>
       </c>
       <c r="S19" t="n">
         <v>2.985816419884373</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7320468009106185</v>
+        <v>0.7320468009106184</v>
       </c>
       <c r="U19" t="n">
-        <v>0.00934527830949727</v>
+        <v>0.009345278309497268</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,31 +32463,31 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3819510732859849</v>
+        <v>0.3819510732859848</v>
       </c>
       <c r="H20" t="n">
         <v>3.911656429290093</v>
       </c>
       <c r="I20" t="n">
-        <v>14.72516875285795</v>
+        <v>14.72516875285794</v>
       </c>
       <c r="J20" t="n">
-        <v>32.41761990630639</v>
+        <v>32.41761990630638</v>
       </c>
       <c r="K20" t="n">
-        <v>48.58560883850214</v>
+        <v>48.58560883850213</v>
       </c>
       <c r="L20" t="n">
-        <v>60.27474399757811</v>
+        <v>60.2747439975781</v>
       </c>
       <c r="M20" t="n">
-        <v>67.06726639712774</v>
+        <v>67.06726639712772</v>
       </c>
       <c r="N20" t="n">
-        <v>68.15248488410155</v>
+        <v>68.15248488410154</v>
       </c>
       <c r="O20" t="n">
-        <v>64.35445889911404</v>
+        <v>64.35445889911402</v>
       </c>
       <c r="P20" t="n">
         <v>54.92504177736627</v>
@@ -32502,7 +32502,7 @@
         <v>8.703710082504388</v>
       </c>
       <c r="T20" t="n">
-        <v>1.6719908233094</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U20" t="n">
         <v>0.03055608586287878</v>
@@ -32548,40 +32548,40 @@
         <v>1.973705146365238</v>
       </c>
       <c r="I21" t="n">
-        <v>7.03614232468988</v>
+        <v>7.036142324689879</v>
       </c>
       <c r="J21" t="n">
         <v>19.30771233326684</v>
       </c>
       <c r="K21" t="n">
-        <v>32.99995566472705</v>
+        <v>32.99995566472704</v>
       </c>
       <c r="L21" t="n">
         <v>44.37251283869713</v>
       </c>
       <c r="M21" t="n">
-        <v>51.7806295665394</v>
+        <v>51.78062956653939</v>
       </c>
       <c r="N21" t="n">
         <v>53.15110875309365</v>
       </c>
       <c r="O21" t="n">
-        <v>48.62288059712763</v>
+        <v>48.62288059712762</v>
       </c>
       <c r="P21" t="n">
-        <v>39.02414834806981</v>
+        <v>39.0241483480698</v>
       </c>
       <c r="Q21" t="n">
-        <v>26.08660970927061</v>
+        <v>26.0866097092706</v>
       </c>
       <c r="R21" t="n">
         <v>12.68836060488025</v>
       </c>
       <c r="S21" t="n">
-        <v>3.795931559880461</v>
+        <v>3.79593155988046</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8237216301133753</v>
+        <v>0.8237216301133752</v>
       </c>
       <c r="U21" t="n">
         <v>0.01344485794526729</v>
@@ -32627,13 +32627,13 @@
         <v>1.523280364448054</v>
       </c>
       <c r="I22" t="n">
-        <v>5.152363441302824</v>
+        <v>5.152363441302823</v>
       </c>
       <c r="J22" t="n">
         <v>12.11303823549336</v>
       </c>
       <c r="K22" t="n">
-        <v>19.90544279922916</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L22" t="n">
         <v>25.4721135789197</v>
@@ -32642,28 +32642,28 @@
         <v>26.8567723151102</v>
       </c>
       <c r="N22" t="n">
-        <v>26.21817829729458</v>
+        <v>26.21817829729457</v>
       </c>
       <c r="O22" t="n">
         <v>24.21673119267724</v>
       </c>
       <c r="P22" t="n">
-        <v>20.72159710492525</v>
+        <v>20.72159710492524</v>
       </c>
       <c r="Q22" t="n">
         <v>14.34655975146321</v>
       </c>
       <c r="R22" t="n">
-        <v>7.703624419795572</v>
+        <v>7.70362441979557</v>
       </c>
       <c r="S22" t="n">
         <v>2.985816419884373</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7320468009106185</v>
+        <v>0.7320468009106184</v>
       </c>
       <c r="U22" t="n">
-        <v>0.00934527830949727</v>
+        <v>0.009345278309497268</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859848</v>
       </c>
       <c r="H23" t="n">
-        <v>3.911656429290089</v>
+        <v>3.911656429290093</v>
       </c>
       <c r="I23" t="n">
-        <v>14.72516875285793</v>
+        <v>14.72516875285794</v>
       </c>
       <c r="J23" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630638</v>
       </c>
       <c r="K23" t="n">
-        <v>48.58560883850209</v>
+        <v>48.58560883850213</v>
       </c>
       <c r="L23" t="n">
-        <v>60.27474399757805</v>
+        <v>60.2747439975781</v>
       </c>
       <c r="M23" t="n">
-        <v>67.06726639712767</v>
+        <v>67.06726639712772</v>
       </c>
       <c r="N23" t="n">
-        <v>68.15248488410148</v>
+        <v>68.15248488410154</v>
       </c>
       <c r="O23" t="n">
-        <v>64.35445889911396</v>
+        <v>64.35445889911402</v>
       </c>
       <c r="P23" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736627</v>
       </c>
       <c r="Q23" t="n">
-        <v>41.24641896531188</v>
+        <v>41.24641896531192</v>
       </c>
       <c r="R23" t="n">
-        <v>23.99273410730074</v>
+        <v>23.99273410730077</v>
       </c>
       <c r="S23" t="n">
-        <v>8.703710082504379</v>
+        <v>8.703710082504388</v>
       </c>
       <c r="T23" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03055608586287875</v>
+        <v>0.03055608586287878</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2043618407680625</v>
+        <v>0.2043618407680627</v>
       </c>
       <c r="H24" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365238</v>
       </c>
       <c r="I24" t="n">
-        <v>7.036142324689872</v>
+        <v>7.036142324689879</v>
       </c>
       <c r="J24" t="n">
-        <v>19.30771233326682</v>
+        <v>19.30771233326684</v>
       </c>
       <c r="K24" t="n">
-        <v>32.99995566472701</v>
+        <v>32.99995566472704</v>
       </c>
       <c r="L24" t="n">
-        <v>44.37251283869708</v>
+        <v>44.37251283869713</v>
       </c>
       <c r="M24" t="n">
-        <v>51.78062956653934</v>
+        <v>51.78062956653939</v>
       </c>
       <c r="N24" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309365</v>
       </c>
       <c r="O24" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712762</v>
       </c>
       <c r="P24" t="n">
-        <v>39.02414834806977</v>
+        <v>39.0241483480698</v>
       </c>
       <c r="Q24" t="n">
-        <v>26.08660970927058</v>
+        <v>26.0866097092706</v>
       </c>
       <c r="R24" t="n">
-        <v>12.68836060488024</v>
+        <v>12.68836060488025</v>
       </c>
       <c r="S24" t="n">
-        <v>3.795931559880457</v>
+        <v>3.79593155988046</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8237216301133745</v>
+        <v>0.8237216301133752</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526729</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.1713301023407831</v>
       </c>
       <c r="H25" t="n">
-        <v>1.523280364448053</v>
+        <v>1.523280364448054</v>
       </c>
       <c r="I25" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302823</v>
       </c>
       <c r="J25" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549336</v>
       </c>
       <c r="K25" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L25" t="n">
-        <v>25.47211357891967</v>
+        <v>25.4721135789197</v>
       </c>
       <c r="M25" t="n">
-        <v>26.85677231511017</v>
+        <v>26.8567723151102</v>
       </c>
       <c r="N25" t="n">
-        <v>26.21817829729455</v>
+        <v>26.21817829729457</v>
       </c>
       <c r="O25" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267724</v>
       </c>
       <c r="P25" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492524</v>
       </c>
       <c r="Q25" t="n">
-        <v>14.34655975146319</v>
+        <v>14.34655975146321</v>
       </c>
       <c r="R25" t="n">
-        <v>7.703624419795564</v>
+        <v>7.70362441979557</v>
       </c>
       <c r="S25" t="n">
-        <v>2.98581641988437</v>
+        <v>2.985816419884373</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7320468009106177</v>
+        <v>0.7320468009106184</v>
       </c>
       <c r="U25" t="n">
-        <v>0.00934527830949726</v>
+        <v>0.009345278309497268</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859848</v>
       </c>
       <c r="H26" t="n">
-        <v>3.911656429290089</v>
+        <v>3.911656429290093</v>
       </c>
       <c r="I26" t="n">
-        <v>14.72516875285793</v>
+        <v>14.72516875285794</v>
       </c>
       <c r="J26" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630638</v>
       </c>
       <c r="K26" t="n">
-        <v>48.58560883850209</v>
+        <v>48.58560883850213</v>
       </c>
       <c r="L26" t="n">
-        <v>60.27474399757805</v>
+        <v>60.2747439975781</v>
       </c>
       <c r="M26" t="n">
-        <v>67.06726639712767</v>
+        <v>67.06726639712772</v>
       </c>
       <c r="N26" t="n">
-        <v>68.15248488410148</v>
+        <v>68.15248488410154</v>
       </c>
       <c r="O26" t="n">
-        <v>64.35445889911396</v>
+        <v>64.35445889911402</v>
       </c>
       <c r="P26" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736627</v>
       </c>
       <c r="Q26" t="n">
-        <v>41.24641896531188</v>
+        <v>41.24641896531192</v>
       </c>
       <c r="R26" t="n">
-        <v>23.99273410730074</v>
+        <v>23.99273410730077</v>
       </c>
       <c r="S26" t="n">
-        <v>8.703710082504379</v>
+        <v>8.703710082504388</v>
       </c>
       <c r="T26" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03055608586287875</v>
+        <v>0.03055608586287878</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2043618407680625</v>
+        <v>0.2043618407680627</v>
       </c>
       <c r="H27" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365238</v>
       </c>
       <c r="I27" t="n">
-        <v>7.036142324689872</v>
+        <v>7.036142324689879</v>
       </c>
       <c r="J27" t="n">
-        <v>19.30771233326682</v>
+        <v>19.30771233326684</v>
       </c>
       <c r="K27" t="n">
-        <v>32.99995566472701</v>
+        <v>32.99995566472704</v>
       </c>
       <c r="L27" t="n">
-        <v>44.37251283869708</v>
+        <v>44.37251283869713</v>
       </c>
       <c r="M27" t="n">
-        <v>51.78062956653934</v>
+        <v>51.78062956653939</v>
       </c>
       <c r="N27" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309365</v>
       </c>
       <c r="O27" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712762</v>
       </c>
       <c r="P27" t="n">
-        <v>39.02414834806977</v>
+        <v>39.0241483480698</v>
       </c>
       <c r="Q27" t="n">
-        <v>26.08660970927058</v>
+        <v>26.0866097092706</v>
       </c>
       <c r="R27" t="n">
-        <v>12.68836060488024</v>
+        <v>12.68836060488025</v>
       </c>
       <c r="S27" t="n">
-        <v>3.795931559880457</v>
+        <v>3.79593155988046</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8237216301133745</v>
+        <v>0.8237216301133752</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526729</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.1713301023407831</v>
       </c>
       <c r="H28" t="n">
-        <v>1.523280364448053</v>
+        <v>1.523280364448054</v>
       </c>
       <c r="I28" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302823</v>
       </c>
       <c r="J28" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549336</v>
       </c>
       <c r="K28" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L28" t="n">
-        <v>25.47211357891967</v>
+        <v>25.4721135789197</v>
       </c>
       <c r="M28" t="n">
-        <v>26.85677231511017</v>
+        <v>26.8567723151102</v>
       </c>
       <c r="N28" t="n">
-        <v>26.21817829729455</v>
+        <v>26.21817829729457</v>
       </c>
       <c r="O28" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267724</v>
       </c>
       <c r="P28" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492524</v>
       </c>
       <c r="Q28" t="n">
-        <v>14.34655975146319</v>
+        <v>14.34655975146321</v>
       </c>
       <c r="R28" t="n">
-        <v>7.703624419795564</v>
+        <v>7.70362441979557</v>
       </c>
       <c r="S28" t="n">
-        <v>2.98581641988437</v>
+        <v>2.985816419884373</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7320468009106177</v>
+        <v>0.7320468009106184</v>
       </c>
       <c r="U28" t="n">
-        <v>0.00934527830949726</v>
+        <v>0.009345278309497268</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859848</v>
       </c>
       <c r="H29" t="n">
-        <v>3.911656429290089</v>
+        <v>3.911656429290093</v>
       </c>
       <c r="I29" t="n">
-        <v>14.72516875285793</v>
+        <v>14.72516875285794</v>
       </c>
       <c r="J29" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630638</v>
       </c>
       <c r="K29" t="n">
-        <v>48.58560883850209</v>
+        <v>48.58560883850213</v>
       </c>
       <c r="L29" t="n">
-        <v>60.27474399757805</v>
+        <v>60.2747439975781</v>
       </c>
       <c r="M29" t="n">
-        <v>67.06726639712767</v>
+        <v>67.06726639712772</v>
       </c>
       <c r="N29" t="n">
-        <v>68.15248488410148</v>
+        <v>68.15248488410154</v>
       </c>
       <c r="O29" t="n">
-        <v>64.35445889911396</v>
+        <v>64.35445889911402</v>
       </c>
       <c r="P29" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736627</v>
       </c>
       <c r="Q29" t="n">
-        <v>41.24641896531188</v>
+        <v>41.24641896531192</v>
       </c>
       <c r="R29" t="n">
-        <v>23.99273410730074</v>
+        <v>23.99273410730077</v>
       </c>
       <c r="S29" t="n">
-        <v>8.703710082504379</v>
+        <v>8.703710082504388</v>
       </c>
       <c r="T29" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03055608586287875</v>
+        <v>0.03055608586287878</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2043618407680625</v>
+        <v>0.2043618407680627</v>
       </c>
       <c r="H30" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365238</v>
       </c>
       <c r="I30" t="n">
-        <v>7.036142324689872</v>
+        <v>7.036142324689879</v>
       </c>
       <c r="J30" t="n">
-        <v>19.30771233326682</v>
+        <v>19.30771233326684</v>
       </c>
       <c r="K30" t="n">
-        <v>32.99995566472701</v>
+        <v>32.99995566472704</v>
       </c>
       <c r="L30" t="n">
-        <v>44.37251283869708</v>
+        <v>44.37251283869713</v>
       </c>
       <c r="M30" t="n">
-        <v>51.78062956653934</v>
+        <v>51.78062956653939</v>
       </c>
       <c r="N30" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309365</v>
       </c>
       <c r="O30" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712762</v>
       </c>
       <c r="P30" t="n">
-        <v>39.02414834806977</v>
+        <v>39.0241483480698</v>
       </c>
       <c r="Q30" t="n">
-        <v>26.08660970927058</v>
+        <v>26.0866097092706</v>
       </c>
       <c r="R30" t="n">
-        <v>12.68836060488024</v>
+        <v>12.68836060488025</v>
       </c>
       <c r="S30" t="n">
-        <v>3.795931559880457</v>
+        <v>3.79593155988046</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8237216301133745</v>
+        <v>0.8237216301133752</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526729</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.1713301023407831</v>
       </c>
       <c r="H31" t="n">
-        <v>1.523280364448053</v>
+        <v>1.523280364448054</v>
       </c>
       <c r="I31" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302823</v>
       </c>
       <c r="J31" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549336</v>
       </c>
       <c r="K31" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L31" t="n">
-        <v>25.47211357891967</v>
+        <v>25.4721135789197</v>
       </c>
       <c r="M31" t="n">
-        <v>26.85677231511017</v>
+        <v>26.8567723151102</v>
       </c>
       <c r="N31" t="n">
-        <v>26.21817829729455</v>
+        <v>26.21817829729457</v>
       </c>
       <c r="O31" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267724</v>
       </c>
       <c r="P31" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492524</v>
       </c>
       <c r="Q31" t="n">
-        <v>14.34655975146319</v>
+        <v>14.34655975146321</v>
       </c>
       <c r="R31" t="n">
-        <v>7.703624419795564</v>
+        <v>7.70362441979557</v>
       </c>
       <c r="S31" t="n">
-        <v>2.98581641988437</v>
+        <v>2.985816419884373</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7320468009106177</v>
+        <v>0.7320468009106184</v>
       </c>
       <c r="U31" t="n">
-        <v>0.00934527830949726</v>
+        <v>0.009345278309497268</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859846</v>
       </c>
       <c r="H32" t="n">
-        <v>3.911656429290089</v>
+        <v>3.911656429290091</v>
       </c>
       <c r="I32" t="n">
-        <v>14.72516875285793</v>
+        <v>14.72516875285794</v>
       </c>
       <c r="J32" t="n">
         <v>32.41761990630636</v>
       </c>
       <c r="K32" t="n">
-        <v>48.58560883850209</v>
+        <v>48.5856088385021</v>
       </c>
       <c r="L32" t="n">
-        <v>60.27474399757805</v>
+        <v>60.27474399757806</v>
       </c>
       <c r="M32" t="n">
-        <v>67.06726639712767</v>
+        <v>67.0672663971277</v>
       </c>
       <c r="N32" t="n">
-        <v>68.15248488410148</v>
+        <v>68.1524848841015</v>
       </c>
       <c r="O32" t="n">
-        <v>64.35445889911396</v>
+        <v>64.35445889911399</v>
       </c>
       <c r="P32" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736623</v>
       </c>
       <c r="Q32" t="n">
-        <v>41.24641896531188</v>
+        <v>41.2464189653119</v>
       </c>
       <c r="R32" t="n">
-        <v>23.99273410730074</v>
+        <v>23.99273410730075</v>
       </c>
       <c r="S32" t="n">
-        <v>8.703710082504379</v>
+        <v>8.703710082504383</v>
       </c>
       <c r="T32" t="n">
         <v>1.671990823309398</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03055608586287875</v>
+        <v>0.03055608586287876</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2043618407680625</v>
+        <v>0.2043618407680626</v>
       </c>
       <c r="H33" t="n">
         <v>1.973705146365236</v>
       </c>
       <c r="I33" t="n">
-        <v>7.036142324689872</v>
+        <v>7.036142324689875</v>
       </c>
       <c r="J33" t="n">
-        <v>19.30771233326682</v>
+        <v>19.30771233326683</v>
       </c>
       <c r="K33" t="n">
-        <v>32.99995566472701</v>
+        <v>32.99995566472702</v>
       </c>
       <c r="L33" t="n">
-        <v>44.37251283869708</v>
+        <v>44.3725128386971</v>
       </c>
       <c r="M33" t="n">
-        <v>51.78062956653934</v>
+        <v>51.78062956653935</v>
       </c>
       <c r="N33" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309361</v>
       </c>
       <c r="O33" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712759</v>
       </c>
       <c r="P33" t="n">
-        <v>39.02414834806977</v>
+        <v>39.02414834806978</v>
       </c>
       <c r="Q33" t="n">
-        <v>26.08660970927058</v>
+        <v>26.08660970927059</v>
       </c>
       <c r="R33" t="n">
         <v>12.68836060488024</v>
       </c>
       <c r="S33" t="n">
-        <v>3.795931559880457</v>
+        <v>3.795931559880458</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8237216301133745</v>
+        <v>0.8237216301133747</v>
       </c>
       <c r="U33" t="n">
         <v>0.01344485794526728</v>
@@ -33575,7 +33575,7 @@
         <v>1.523280364448053</v>
       </c>
       <c r="I34" t="n">
-        <v>5.152363441302819</v>
+        <v>5.15236344130282</v>
       </c>
       <c r="J34" t="n">
         <v>12.11303823549335</v>
@@ -33584,13 +33584,13 @@
         <v>19.90544279922914</v>
       </c>
       <c r="L34" t="n">
-        <v>25.47211357891967</v>
+        <v>25.47211357891968</v>
       </c>
       <c r="M34" t="n">
-        <v>26.85677231511017</v>
+        <v>26.85677231511018</v>
       </c>
       <c r="N34" t="n">
-        <v>26.21817829729455</v>
+        <v>26.21817829729456</v>
       </c>
       <c r="O34" t="n">
         <v>24.21673119267722</v>
@@ -33599,19 +33599,19 @@
         <v>20.72159710492523</v>
       </c>
       <c r="Q34" t="n">
-        <v>14.34655975146319</v>
+        <v>14.3465597514632</v>
       </c>
       <c r="R34" t="n">
-        <v>7.703624419795564</v>
+        <v>7.703624419795566</v>
       </c>
       <c r="S34" t="n">
-        <v>2.98581641988437</v>
+        <v>2.985816419884371</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7320468009106177</v>
+        <v>0.7320468009106179</v>
       </c>
       <c r="U34" t="n">
-        <v>0.00934527830949726</v>
+        <v>0.009345278309497263</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859846</v>
       </c>
       <c r="H35" t="n">
-        <v>3.911656429290089</v>
+        <v>3.911656429290091</v>
       </c>
       <c r="I35" t="n">
-        <v>14.72516875285793</v>
+        <v>14.72516875285794</v>
       </c>
       <c r="J35" t="n">
         <v>32.41761990630636</v>
       </c>
       <c r="K35" t="n">
-        <v>48.58560883850209</v>
+        <v>48.5856088385021</v>
       </c>
       <c r="L35" t="n">
-        <v>60.27474399757805</v>
+        <v>60.27474399757806</v>
       </c>
       <c r="M35" t="n">
-        <v>67.06726639712767</v>
+        <v>67.0672663971277</v>
       </c>
       <c r="N35" t="n">
-        <v>68.15248488410148</v>
+        <v>68.1524848841015</v>
       </c>
       <c r="O35" t="n">
-        <v>64.35445889911396</v>
+        <v>64.35445889911399</v>
       </c>
       <c r="P35" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736623</v>
       </c>
       <c r="Q35" t="n">
-        <v>41.24641896531188</v>
+        <v>41.2464189653119</v>
       </c>
       <c r="R35" t="n">
-        <v>23.99273410730074</v>
+        <v>23.99273410730075</v>
       </c>
       <c r="S35" t="n">
-        <v>8.703710082504379</v>
+        <v>8.703710082504383</v>
       </c>
       <c r="T35" t="n">
         <v>1.671990823309398</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03055608586287875</v>
+        <v>0.03055608586287876</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2043618407680625</v>
+        <v>0.2043618407680626</v>
       </c>
       <c r="H36" t="n">
         <v>1.973705146365236</v>
       </c>
       <c r="I36" t="n">
-        <v>7.036142324689872</v>
+        <v>7.036142324689875</v>
       </c>
       <c r="J36" t="n">
-        <v>19.30771233326682</v>
+        <v>19.30771233326683</v>
       </c>
       <c r="K36" t="n">
-        <v>32.99995566472701</v>
+        <v>32.99995566472702</v>
       </c>
       <c r="L36" t="n">
-        <v>44.37251283869708</v>
+        <v>44.3725128386971</v>
       </c>
       <c r="M36" t="n">
-        <v>51.78062956653934</v>
+        <v>51.78062956653935</v>
       </c>
       <c r="N36" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309361</v>
       </c>
       <c r="O36" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712759</v>
       </c>
       <c r="P36" t="n">
-        <v>39.02414834806977</v>
+        <v>39.02414834806978</v>
       </c>
       <c r="Q36" t="n">
-        <v>26.08660970927058</v>
+        <v>26.08660970927059</v>
       </c>
       <c r="R36" t="n">
         <v>12.68836060488024</v>
       </c>
       <c r="S36" t="n">
-        <v>3.795931559880457</v>
+        <v>3.795931559880458</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8237216301133745</v>
+        <v>0.8237216301133747</v>
       </c>
       <c r="U36" t="n">
         <v>0.01344485794526728</v>
@@ -33812,7 +33812,7 @@
         <v>1.523280364448053</v>
       </c>
       <c r="I37" t="n">
-        <v>5.152363441302819</v>
+        <v>5.15236344130282</v>
       </c>
       <c r="J37" t="n">
         <v>12.11303823549335</v>
@@ -33821,13 +33821,13 @@
         <v>19.90544279922914</v>
       </c>
       <c r="L37" t="n">
-        <v>25.47211357891967</v>
+        <v>25.47211357891968</v>
       </c>
       <c r="M37" t="n">
-        <v>26.85677231511017</v>
+        <v>26.85677231511018</v>
       </c>
       <c r="N37" t="n">
-        <v>26.21817829729455</v>
+        <v>26.21817829729456</v>
       </c>
       <c r="O37" t="n">
         <v>24.21673119267722</v>
@@ -33836,19 +33836,19 @@
         <v>20.72159710492523</v>
       </c>
       <c r="Q37" t="n">
-        <v>14.34655975146319</v>
+        <v>14.3465597514632</v>
       </c>
       <c r="R37" t="n">
-        <v>7.703624419795564</v>
+        <v>7.703624419795566</v>
       </c>
       <c r="S37" t="n">
-        <v>2.98581641988437</v>
+        <v>2.985816419884371</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7320468009106177</v>
+        <v>0.7320468009106179</v>
       </c>
       <c r="U37" t="n">
-        <v>0.00934527830949726</v>
+        <v>0.009345278309497263</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859846</v>
       </c>
       <c r="H38" t="n">
-        <v>3.911656429290089</v>
+        <v>3.911656429290091</v>
       </c>
       <c r="I38" t="n">
-        <v>14.72516875285793</v>
+        <v>14.72516875285794</v>
       </c>
       <c r="J38" t="n">
         <v>32.41761990630636</v>
       </c>
       <c r="K38" t="n">
-        <v>48.58560883850209</v>
+        <v>48.5856088385021</v>
       </c>
       <c r="L38" t="n">
-        <v>60.27474399757805</v>
+        <v>60.27474399757806</v>
       </c>
       <c r="M38" t="n">
-        <v>67.06726639712767</v>
+        <v>67.0672663971277</v>
       </c>
       <c r="N38" t="n">
-        <v>68.15248488410148</v>
+        <v>68.1524848841015</v>
       </c>
       <c r="O38" t="n">
-        <v>64.35445889911396</v>
+        <v>64.35445889911399</v>
       </c>
       <c r="P38" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736623</v>
       </c>
       <c r="Q38" t="n">
-        <v>41.24641896531188</v>
+        <v>41.2464189653119</v>
       </c>
       <c r="R38" t="n">
-        <v>23.99273410730074</v>
+        <v>23.99273410730075</v>
       </c>
       <c r="S38" t="n">
-        <v>8.703710082504379</v>
+        <v>8.703710082504383</v>
       </c>
       <c r="T38" t="n">
         <v>1.671990823309398</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03055608586287875</v>
+        <v>0.03055608586287876</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2043618407680625</v>
+        <v>0.2043618407680626</v>
       </c>
       <c r="H39" t="n">
         <v>1.973705146365236</v>
       </c>
       <c r="I39" t="n">
-        <v>7.036142324689872</v>
+        <v>7.036142324689875</v>
       </c>
       <c r="J39" t="n">
-        <v>19.30771233326682</v>
+        <v>19.30771233326683</v>
       </c>
       <c r="K39" t="n">
-        <v>32.99995566472701</v>
+        <v>32.99995566472702</v>
       </c>
       <c r="L39" t="n">
-        <v>44.37251283869708</v>
+        <v>44.3725128386971</v>
       </c>
       <c r="M39" t="n">
-        <v>51.78062956653934</v>
+        <v>51.78062956653935</v>
       </c>
       <c r="N39" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309361</v>
       </c>
       <c r="O39" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712759</v>
       </c>
       <c r="P39" t="n">
-        <v>39.02414834806977</v>
+        <v>39.02414834806978</v>
       </c>
       <c r="Q39" t="n">
-        <v>26.08660970927058</v>
+        <v>26.08660970927059</v>
       </c>
       <c r="R39" t="n">
         <v>12.68836060488024</v>
       </c>
       <c r="S39" t="n">
-        <v>3.795931559880457</v>
+        <v>3.795931559880458</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8237216301133745</v>
+        <v>0.8237216301133747</v>
       </c>
       <c r="U39" t="n">
         <v>0.01344485794526728</v>
@@ -34049,7 +34049,7 @@
         <v>1.523280364448053</v>
       </c>
       <c r="I40" t="n">
-        <v>5.152363441302819</v>
+        <v>5.15236344130282</v>
       </c>
       <c r="J40" t="n">
         <v>12.11303823549335</v>
@@ -34058,13 +34058,13 @@
         <v>19.90544279922914</v>
       </c>
       <c r="L40" t="n">
-        <v>25.47211357891967</v>
+        <v>25.47211357891968</v>
       </c>
       <c r="M40" t="n">
-        <v>26.85677231511017</v>
+        <v>26.85677231511018</v>
       </c>
       <c r="N40" t="n">
-        <v>26.21817829729455</v>
+        <v>26.21817829729456</v>
       </c>
       <c r="O40" t="n">
         <v>24.21673119267722</v>
@@ -34073,19 +34073,19 @@
         <v>20.72159710492523</v>
       </c>
       <c r="Q40" t="n">
-        <v>14.34655975146319</v>
+        <v>14.3465597514632</v>
       </c>
       <c r="R40" t="n">
-        <v>7.703624419795564</v>
+        <v>7.703624419795566</v>
       </c>
       <c r="S40" t="n">
-        <v>2.98581641988437</v>
+        <v>2.985816419884371</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7320468009106177</v>
+        <v>0.7320468009106179</v>
       </c>
       <c r="U40" t="n">
-        <v>0.00934527830949726</v>
+        <v>0.009345278309497263</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859846</v>
       </c>
       <c r="H41" t="n">
-        <v>3.911656429290089</v>
+        <v>3.911656429290091</v>
       </c>
       <c r="I41" t="n">
-        <v>14.72516875285793</v>
+        <v>14.72516875285794</v>
       </c>
       <c r="J41" t="n">
         <v>32.41761990630636</v>
       </c>
       <c r="K41" t="n">
-        <v>48.58560883850209</v>
+        <v>48.5856088385021</v>
       </c>
       <c r="L41" t="n">
-        <v>60.27474399757805</v>
+        <v>60.27474399757806</v>
       </c>
       <c r="M41" t="n">
-        <v>67.06726639712767</v>
+        <v>67.0672663971277</v>
       </c>
       <c r="N41" t="n">
-        <v>68.15248488410148</v>
+        <v>68.1524848841015</v>
       </c>
       <c r="O41" t="n">
-        <v>64.35445889911396</v>
+        <v>64.35445889911399</v>
       </c>
       <c r="P41" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736623</v>
       </c>
       <c r="Q41" t="n">
-        <v>41.24641896531188</v>
+        <v>41.2464189653119</v>
       </c>
       <c r="R41" t="n">
-        <v>23.99273410730074</v>
+        <v>23.99273410730075</v>
       </c>
       <c r="S41" t="n">
-        <v>8.703710082504379</v>
+        <v>8.703710082504383</v>
       </c>
       <c r="T41" t="n">
         <v>1.671990823309398</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03055608586287875</v>
+        <v>0.03055608586287876</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2043618407680625</v>
+        <v>0.2043618407680626</v>
       </c>
       <c r="H42" t="n">
         <v>1.973705146365236</v>
       </c>
       <c r="I42" t="n">
-        <v>7.036142324689872</v>
+        <v>7.036142324689875</v>
       </c>
       <c r="J42" t="n">
-        <v>19.30771233326682</v>
+        <v>19.30771233326683</v>
       </c>
       <c r="K42" t="n">
-        <v>32.99995566472701</v>
+        <v>32.99995566472702</v>
       </c>
       <c r="L42" t="n">
-        <v>44.37251283869708</v>
+        <v>44.3725128386971</v>
       </c>
       <c r="M42" t="n">
-        <v>51.78062956653934</v>
+        <v>51.78062956653935</v>
       </c>
       <c r="N42" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309361</v>
       </c>
       <c r="O42" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712759</v>
       </c>
       <c r="P42" t="n">
-        <v>39.02414834806977</v>
+        <v>39.02414834806978</v>
       </c>
       <c r="Q42" t="n">
-        <v>26.08660970927058</v>
+        <v>26.08660970927059</v>
       </c>
       <c r="R42" t="n">
         <v>12.68836060488024</v>
       </c>
       <c r="S42" t="n">
-        <v>3.795931559880457</v>
+        <v>3.795931559880458</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8237216301133745</v>
+        <v>0.8237216301133747</v>
       </c>
       <c r="U42" t="n">
         <v>0.01344485794526728</v>
@@ -34286,7 +34286,7 @@
         <v>1.523280364448053</v>
       </c>
       <c r="I43" t="n">
-        <v>5.152363441302819</v>
+        <v>5.15236344130282</v>
       </c>
       <c r="J43" t="n">
         <v>12.11303823549335</v>
@@ -34295,13 +34295,13 @@
         <v>19.90544279922914</v>
       </c>
       <c r="L43" t="n">
-        <v>25.47211357891967</v>
+        <v>25.47211357891968</v>
       </c>
       <c r="M43" t="n">
-        <v>26.85677231511017</v>
+        <v>26.85677231511018</v>
       </c>
       <c r="N43" t="n">
-        <v>26.21817829729455</v>
+        <v>26.21817829729456</v>
       </c>
       <c r="O43" t="n">
         <v>24.21673119267722</v>
@@ -34310,19 +34310,19 @@
         <v>20.72159710492523</v>
       </c>
       <c r="Q43" t="n">
-        <v>14.34655975146319</v>
+        <v>14.3465597514632</v>
       </c>
       <c r="R43" t="n">
-        <v>7.703624419795564</v>
+        <v>7.703624419795566</v>
       </c>
       <c r="S43" t="n">
-        <v>2.98581641988437</v>
+        <v>2.985816419884371</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7320468009106177</v>
+        <v>0.7320468009106179</v>
       </c>
       <c r="U43" t="n">
-        <v>0.00934527830949726</v>
+        <v>0.009345278309497263</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34783,19 +34783,19 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>369.5170153233491</v>
+        <v>225.4275451135086</v>
       </c>
       <c r="M3" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>463.3546486099329</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>159.3652826117113</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>231.8086389496855</v>
@@ -35023,10 +35023,10 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>40.69581689574456</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>516.4299455789112</v>
+        <v>128.0558564371606</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
-        <v>212.9515651312839</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>489.93268031336</v>
+        <v>40.69581689574456</v>
       </c>
       <c r="N9" t="n">
         <v>516.4299455789112</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>72.72580229576329</v>
+        <v>105.1434222020697</v>
       </c>
       <c r="K11" t="n">
-        <v>242.5660323684674</v>
+        <v>291.1516412069695</v>
       </c>
       <c r="L11" t="n">
-        <v>351.3993667524709</v>
+        <v>411.6741107500491</v>
       </c>
       <c r="M11" t="n">
-        <v>397.2112790435232</v>
+        <v>464.2785454406509</v>
       </c>
       <c r="N11" t="n">
-        <v>382.1528875633492</v>
+        <v>450.3053724474508</v>
       </c>
       <c r="O11" t="n">
-        <v>308.0854388614484</v>
+        <v>372.4398977605625</v>
       </c>
       <c r="P11" t="n">
-        <v>230.4615115717709</v>
+        <v>285.3865533491372</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.38611483488586</v>
+        <v>136.6325338001978</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>80.17048660913164</v>
       </c>
       <c r="K12" t="n">
-        <v>231.8086389496855</v>
+        <v>122.7017093723959</v>
       </c>
       <c r="L12" t="n">
-        <v>369.5170153233491</v>
+        <v>413.8895281620463</v>
       </c>
       <c r="M12" t="n">
-        <v>260.9238737833203</v>
+        <v>541.7133098798994</v>
       </c>
       <c r="N12" t="n">
-        <v>516.4299455789112</v>
+        <v>569.5810543320049</v>
       </c>
       <c r="O12" t="n">
-        <v>396.1615664486372</v>
+        <v>444.7844470457649</v>
       </c>
       <c r="P12" t="n">
-        <v>305.147393207775</v>
+        <v>344.1715415558448</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>33.9436239844883</v>
+        <v>53.84906678371745</v>
       </c>
       <c r="L13" t="n">
-        <v>101.6233125255146</v>
+        <v>127.0954261044344</v>
       </c>
       <c r="M13" t="n">
-        <v>119.1853597248502</v>
+        <v>146.0421320399604</v>
       </c>
       <c r="N13" t="n">
-        <v>119.6185270197983</v>
+        <v>145.8367053170929</v>
       </c>
       <c r="O13" t="n">
-        <v>99.45822878352493</v>
+        <v>123.6749599762022</v>
       </c>
       <c r="P13" t="n">
-        <v>63.604529018321</v>
+        <v>84.32612612324625</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>464.2785454406509</v>
       </c>
       <c r="N14" t="n">
-        <v>450.3053724474508</v>
+        <v>450.3053724474507</v>
       </c>
       <c r="O14" t="n">
         <v>372.4398977605625</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>80.17048660913163</v>
       </c>
       <c r="K15" t="n">
-        <v>202.8721959815275</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>413.8895281620463</v>
+        <v>351.1393452134598</v>
       </c>
       <c r="M15" t="n">
         <v>541.7133098798994</v>
@@ -35746,7 +35746,7 @@
         <v>344.1715415558448</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35822,7 +35822,7 @@
         <v>123.6749599762022</v>
       </c>
       <c r="P16" t="n">
-        <v>84.32612612324625</v>
+        <v>84.32612612324624</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>105.1434222020697</v>
       </c>
       <c r="K17" t="n">
-        <v>291.1516412069695</v>
+        <v>291.1516412069697</v>
       </c>
       <c r="L17" t="n">
         <v>411.6741107500491</v>
@@ -35895,7 +35895,7 @@
         <v>464.2785454406509</v>
       </c>
       <c r="N17" t="n">
-        <v>450.3053724474508</v>
+        <v>450.3053724474507</v>
       </c>
       <c r="O17" t="n">
         <v>372.4398977605625</v>
@@ -35965,10 +35965,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>17.42030366054513</v>
+        <v>202.8721959815271</v>
       </c>
       <c r="L18" t="n">
-        <v>413.8895281620463</v>
+        <v>413.8895281620462</v>
       </c>
       <c r="M18" t="n">
         <v>541.7133098798994</v>
@@ -35983,7 +35983,7 @@
         <v>344.1715415558448</v>
       </c>
       <c r="Q18" t="n">
-        <v>185.451892320982</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36059,7 +36059,7 @@
         <v>123.6749599762022</v>
       </c>
       <c r="P19" t="n">
-        <v>84.32612612324625</v>
+        <v>84.32612612324624</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>464.2785454406509</v>
       </c>
       <c r="N20" t="n">
-        <v>450.3053724474508</v>
+        <v>450.3053724474507</v>
       </c>
       <c r="O20" t="n">
         <v>372.4398977605625</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>80.17048660913164</v>
+        <v>80.17048660913163</v>
       </c>
       <c r="K21" t="n">
         <v>264.8085946144126</v>
       </c>
       <c r="L21" t="n">
-        <v>413.8895281620463</v>
+        <v>413.8895281620462</v>
       </c>
       <c r="M21" t="n">
         <v>541.7133098798994</v>
       </c>
       <c r="N21" t="n">
-        <v>569.5810543320049</v>
+        <v>242.0222767690056</v>
       </c>
       <c r="O21" t="n">
         <v>444.7844470457649</v>
       </c>
       <c r="P21" t="n">
-        <v>202.0646563138277</v>
+        <v>344.1715415558448</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36296,7 +36296,7 @@
         <v>123.6749599762022</v>
       </c>
       <c r="P22" t="n">
-        <v>84.32612612324625</v>
+        <v>84.32612612324624</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020698</v>
       </c>
       <c r="K23" t="n">
         <v>291.1516412069695</v>
       </c>
       <c r="L23" t="n">
-        <v>411.674110750049</v>
+        <v>411.6741107500491</v>
       </c>
       <c r="M23" t="n">
         <v>464.2785454406509</v>
@@ -36372,13 +36372,13 @@
         <v>450.3053724474507</v>
       </c>
       <c r="O23" t="n">
-        <v>372.4398977605624</v>
+        <v>372.4398977605625</v>
       </c>
       <c r="P23" t="n">
         <v>285.3865533491372</v>
       </c>
       <c r="Q23" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001978</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>80.17048660913161</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.8085946144126</v>
       </c>
       <c r="L24" t="n">
-        <v>351.1393452134602</v>
+        <v>413.8895281620462</v>
       </c>
       <c r="M24" t="n">
         <v>541.7133098798994</v>
       </c>
       <c r="N24" t="n">
-        <v>569.5810543320048</v>
+        <v>569.5810543320049</v>
       </c>
       <c r="O24" t="n">
-        <v>444.7844470457648</v>
+        <v>444.7844470457649</v>
       </c>
       <c r="P24" t="n">
-        <v>344.1715415558448</v>
+        <v>282.2351429229585</v>
       </c>
       <c r="Q24" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,10 +36518,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>53.84906678371743</v>
+        <v>53.84906678371745</v>
       </c>
       <c r="L25" t="n">
-        <v>127.0954261044343</v>
+        <v>127.0954261044344</v>
       </c>
       <c r="M25" t="n">
         <v>146.0421320399604</v>
@@ -36530,10 +36530,10 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O25" t="n">
-        <v>123.6749599762021</v>
+        <v>123.6749599762022</v>
       </c>
       <c r="P25" t="n">
-        <v>84.32612612324623</v>
+        <v>84.32612612324624</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>105.1434222020699</v>
+        <v>105.1434222020697</v>
       </c>
       <c r="K26" t="n">
-        <v>291.1516412069695</v>
+        <v>291.1516412069697</v>
       </c>
       <c r="L26" t="n">
-        <v>411.674110750049</v>
+        <v>411.6741107500491</v>
       </c>
       <c r="M26" t="n">
         <v>464.2785454406509</v>
@@ -36609,13 +36609,13 @@
         <v>450.3053724474507</v>
       </c>
       <c r="O26" t="n">
-        <v>372.4398977605624</v>
+        <v>372.4398977605625</v>
       </c>
       <c r="P26" t="n">
         <v>285.3865533491372</v>
       </c>
       <c r="Q26" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001978</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>202.8721959815271</v>
+        <v>264.8085946144126</v>
       </c>
       <c r="L27" t="n">
         <v>413.8895281620462</v>
       </c>
       <c r="M27" t="n">
-        <v>541.7133098798994</v>
+        <v>479.7769112470139</v>
       </c>
       <c r="N27" t="n">
-        <v>569.5810543320048</v>
+        <v>569.5810543320049</v>
       </c>
       <c r="O27" t="n">
-        <v>444.7844470457648</v>
+        <v>444.7844470457649</v>
       </c>
       <c r="P27" t="n">
         <v>344.1715415558448</v>
@@ -36755,10 +36755,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>53.84906678371743</v>
+        <v>53.84906678371745</v>
       </c>
       <c r="L28" t="n">
-        <v>127.0954261044343</v>
+        <v>127.0954261044344</v>
       </c>
       <c r="M28" t="n">
         <v>146.0421320399604</v>
@@ -36767,10 +36767,10 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O28" t="n">
-        <v>123.6749599762021</v>
+        <v>123.6749599762022</v>
       </c>
       <c r="P28" t="n">
-        <v>84.32612612324623</v>
+        <v>84.32612612324624</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020698</v>
       </c>
       <c r="K29" t="n">
         <v>291.1516412069695</v>
       </c>
       <c r="L29" t="n">
-        <v>411.674110750049</v>
+        <v>411.6741107500491</v>
       </c>
       <c r="M29" t="n">
         <v>464.2785454406509</v>
@@ -36846,13 +36846,13 @@
         <v>450.3053724474507</v>
       </c>
       <c r="O29" t="n">
-        <v>372.4398977605624</v>
+        <v>372.4398977605625</v>
       </c>
       <c r="P29" t="n">
         <v>285.3865533491372</v>
       </c>
       <c r="Q29" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001978</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.8085946144125</v>
+        <v>264.8085946144126</v>
       </c>
       <c r="L30" t="n">
         <v>413.8895281620462</v>
@@ -36922,13 +36922,13 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N30" t="n">
-        <v>507.6446556991191</v>
+        <v>569.5810543320049</v>
       </c>
       <c r="O30" t="n">
-        <v>444.7844470457648</v>
+        <v>444.7844470457649</v>
       </c>
       <c r="P30" t="n">
-        <v>344.1715415558448</v>
+        <v>282.2351429229585</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36992,10 +36992,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>53.84906678371743</v>
+        <v>53.84906678371745</v>
       </c>
       <c r="L31" t="n">
-        <v>127.0954261044343</v>
+        <v>127.0954261044344</v>
       </c>
       <c r="M31" t="n">
         <v>146.0421320399604</v>
@@ -37004,10 +37004,10 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O31" t="n">
-        <v>123.6749599762021</v>
+        <v>123.6749599762022</v>
       </c>
       <c r="P31" t="n">
-        <v>84.32612612324623</v>
+        <v>84.32612612324624</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>285.3865533491372</v>
       </c>
       <c r="Q32" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001978</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37162,7 +37162,7 @@
         <v>569.5810543320048</v>
       </c>
       <c r="O33" t="n">
-        <v>444.7844470457648</v>
+        <v>444.7844470457649</v>
       </c>
       <c r="P33" t="n">
         <v>344.1715415558448</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>53.84906678371743</v>
+        <v>53.84906678371744</v>
       </c>
       <c r="L34" t="n">
         <v>127.0954261044343</v>
@@ -37241,10 +37241,10 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O34" t="n">
-        <v>123.6749599762021</v>
+        <v>123.6749599762022</v>
       </c>
       <c r="P34" t="n">
-        <v>84.32612612324623</v>
+        <v>84.32612612324624</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>285.3865533491372</v>
       </c>
       <c r="Q35" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001978</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.8085946144125</v>
+        <v>202.8721959815271</v>
       </c>
       <c r="L36" t="n">
         <v>413.8895281620462</v>
@@ -37399,13 +37399,13 @@
         <v>569.5810543320048</v>
       </c>
       <c r="O36" t="n">
-        <v>444.7844470457648</v>
+        <v>444.7844470457649</v>
       </c>
       <c r="P36" t="n">
-        <v>96.78325060197751</v>
+        <v>344.1715415558448</v>
       </c>
       <c r="Q36" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>53.84906678371743</v>
+        <v>53.84906678371744</v>
       </c>
       <c r="L37" t="n">
         <v>127.0954261044343</v>
@@ -37478,10 +37478,10 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O37" t="n">
-        <v>123.6749599762021</v>
+        <v>123.6749599762022</v>
       </c>
       <c r="P37" t="n">
-        <v>84.32612612324623</v>
+        <v>84.32612612324624</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020699</v>
       </c>
       <c r="K38" t="n">
         <v>291.1516412069695</v>
@@ -37563,7 +37563,7 @@
         <v>285.3865533491372</v>
       </c>
       <c r="Q38" t="n">
-        <v>136.6325338001976</v>
+        <v>136.6325338001978</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>413.8895281620462</v>
       </c>
       <c r="M39" t="n">
-        <v>541.7133098798994</v>
+        <v>214.1545323169</v>
       </c>
       <c r="N39" t="n">
-        <v>242.0222767690058</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O39" t="n">
-        <v>444.7844470457648</v>
+        <v>444.7844470457649</v>
       </c>
       <c r="P39" t="n">
         <v>344.1715415558448</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>53.84906678371743</v>
+        <v>53.84906678371744</v>
       </c>
       <c r="L40" t="n">
         <v>127.0954261044343</v>
@@ -37715,10 +37715,10 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O40" t="n">
-        <v>123.6749599762021</v>
+        <v>123.6749599762022</v>
       </c>
       <c r="P40" t="n">
-        <v>84.32612612324623</v>
+        <v>84.32612612324624</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>285.3865533491372</v>
       </c>
       <c r="Q41" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001976</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,10 +37861,10 @@
         <v>80.17048660913161</v>
       </c>
       <c r="K42" t="n">
-        <v>122.7017093723955</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L42" t="n">
-        <v>413.8895281620462</v>
+        <v>86.33075059904697</v>
       </c>
       <c r="M42" t="n">
         <v>541.7133098798994</v>
@@ -37873,13 +37873,13 @@
         <v>569.5810543320048</v>
       </c>
       <c r="O42" t="n">
-        <v>444.7844470457648</v>
+        <v>444.7844470457649</v>
       </c>
       <c r="P42" t="n">
         <v>344.1715415558448</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>53.84906678371743</v>
+        <v>53.84906678371744</v>
       </c>
       <c r="L43" t="n">
         <v>127.0954261044343</v>
@@ -37952,10 +37952,10 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O43" t="n">
-        <v>123.6749599762021</v>
+        <v>123.6749599762022</v>
       </c>
       <c r="P43" t="n">
-        <v>84.32612612324623</v>
+        <v>84.32612612324624</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
